--- a/deuChatbot/research_result/no_rag.xlsx
+++ b/deuChatbot/research_result/no_rag.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F501"/>
+  <dimension ref="A1:F600"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="F111" sqref="F111"/>
@@ -33390,6 +33390,6791 @@
         </is>
       </c>
     </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 디자인조형학과의 실기시험에 대한 정보가 포함되어 있지만, 많은 세부사항이 누락되거나 잘못된 정보가 포함되어 있습니다. 예를 들어, 시험의 주제와 조건에 대한 설명이 원본 텍스트와 일치하지 않으며, 시험의 구조와 배점에 대한 정보도 부정확합니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일관성이 없습니다. 예를 들어, 시험의 주제와 준비물에 대한 설명이 원본과 다르며, 시험의 진행 방식에 대한 정보도 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 디자인조형학과의 실기시험에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 다소 벗어난 부분이 있습니다. 일부 정보는 관련이 있지만, 전체적으로는 원본의 핵심 주제를 충분히 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려운 부분이 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 정보가 잘 연결되지 않아 독자가 이해하기 어려운 부분이 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 여러 면에서 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 예를 들어, 주제와 조건에 대한 설명이 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 많은 문제를 가지고 있으며, 전반적으로 원본 텍스트의 내용을 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 일부 반영하고 있지만, 여러 부분에서 부적절한 해석이 포함되어 있습니다. 원본의 의도를 완전히 전달하지 못하고 있습니다.
+9. Understandability Score (1-5): 3  
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장 구조가 복잡하여 독자가 내용을 파악하는 데 어려움을 겪을 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>0.8087004917693982</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>Dong-eui University의 디자인조형학과에서는 일반학생을 위한 실기시험이 진행됩니다. 여기에는 아래와 같은 내용들이 포함되어 있습니다:
+1. **대상자** : 지원자가 모집단위의 디자인조형학과에서 신분증을 지참하여 시험에 응시합니다.
+2. **안내사항**:
+   - 수험표나 사진이 포함된 신분증을 지참하고, 실기를 거부한 경우에는 불합격으로 간주됩니다.
+   - 백지를 제출했거나 부정한 방법을 사용하면 또한 불합격으로 간주됩니다.
+   - 시험이 진행될 경우, 수험생은 자신을 선택하고 그 과정에서 부정한 행위를 하지 않아야 합니다.
+   - 대리시험이나 방해는 불합격의 요인이 됩니다.
+3. **종목과 상관없이 시행**:
+   - 수험생은 기초부터 고급에 이르는 여러 주제를 선택하여, 그들의 연결성을 보여주는 시각화나 조형작품을 만드는 과정에서 70%의 배점(700점)이 부여됩니다.
+   - **기초**: 도구로 시작하고, 주제A (예: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지)과 주제B (예: 악보, 줄자스카치, 바이러스, 여행계적 꿈)를 선택하여 1개씩의 주제에서 연결을 만들어내는 과정.
+   - **사고**: 조건이나 제공된 시리즈(예: 콜라병, 마스크, 시계맥가이)를 바탕으로, 사고의 전환을 위한 도구 (연필, 색연필, 수채물감 등)를 사용하여 2개씩의 주제(A와 B)에서 시각화나 조형작품을 만들어내는 과정.
+   - **시간**: 모든 부분은 3절5시간이라는 시간제한에서 진행됩니다.
+4. **주제 A &amp; B의 구성**:
+   - 수험생들은 선택한 사물과 이미지를 바탕으로, 각자가 다른 아이디어나 스타일을 제시하여 1개의 주제A와 B에서 연결성과 상호작용을 통해 보여줄 수 있는 기초부터 복잡한 조형적인 요소로의 진전이 가능합니다.
+   - **제출**: 시험은 수행과정을 보여주는 화지를 제출하게 됩니다. 도구의 선택, 사용방식, 아이디어에서의 연계성 등이 평가되는 시스템입니다.
+   - **조건**:
+     - 제공된 사물과 그 형상을 모방하지 않도록 합니다.
+     - 동일한 사물이나 이미지를 여러 차례 표현해야 합니다.
+     - 제공된 사물의 색상을 바꾸지 않도록 합니다.
+이러한 시험은, 학생들이 기술과 아이디어를 동원하여 조형의 전통을 계승하고 진보시키는 방식에서 성장과 지도가 주로 제공됩니다. 이 시험은 학생들의 자신만의 스타일을 드러내고, 사고를 연결하는 기술에서 성과가 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 디자인조형학과의 실기종목과 준비물에 대한 정보를 제공하고 있지만, 원본 텍스트의 세부사항과 일치하지 않는 부분이 많습니다. 예를 들어, '시각/산업/공예디자인'이라는 실기종목은 원본에 언급되지 않았고, 점수와 관련된 정보도 잘못되었습니다. 
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 여러 면에서 일치하지 않으며, 특히 실기종목과 주제에 대한 설명이 상충합니다. 원본의 주제와 조건이 제대로 반영되지 않았습니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과의 실기와 관련된 내용을 다루고 있지만, 원본 텍스트의 구체적인 내용과는 다소 거리가 있습니다. 주제와 준비물에 대한 정보는 포함되어 있으나, 원본의 핵심 요소를 충분히 반영하지 못했습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려운 부분이 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 일관성이 부족하여 전체적으로 일관된 메시지를 전달하지 못합니다. 주제와 내용이 혼합되어 있어 명확한 구조가 결여되어 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히 실기종목과 주제에 대한 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 디자인조형학과와 관련된 내용을 다루고 있지만, 원본의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 일부 내용은 적절하지만, 전체적으로는 부적절한 부분이 많습니다.
+9. Understandability Score (1-5): 3  
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장이 복잡하여 명확한 이해를 방해할 수 있습니다. 원본의 내용을 충분히 반영하지 못해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>0.8005951450144825</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>DONG-EUI UNIVERSITY의 디자인조형학과에서는 다음과 같은 실기종목, 준비물, 주제, 그리고 시간을 요구하는 수험의 경우:
+1. **시각/산업/공예디자인** (700점, 70%):
+   - **준비물**: 디자인볼펜, 연필, 색연필, 수채물감 등의 도구.
+   - **주제**: 아래에서 제시한 '주제A' (예: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이)과 '주제B' (예: 악보, 줄자스카치, 바이러스, 여행 계절)을 1개씩 선택하고, 그들의 연결성에서 다음날 제시된 '주제A'와 '주제B'를 만들어내는 과정.
+   - **화지크기**: 아래에서 사용하는 도구로, 각 도구마다 1점을 부여합니다 (총 5개의 도구).
+   - **시간**: 3일차(3절)에 6시간(5시간 + 1절), 4일차(4절)에 5시간(5시간)을 할당합니다.
+수험생은 이 주제들로부터의 아이디어를 구현하고, 도구를 사용해서 연결성과 시각적 전환을 보여줄 수 있는 실질적인 디자인을 만들어야 합니다. 제공된 사물과 이미지를 포함하여, 그리고 도구의 색상은 바꿀 수 없습니다. 선택한 사물을 1회만 제시하고, 연결성과 아이디어를 보여주는 기술이 중요합니다.
+이러한 내용에 대해서 정확히 이해하고, 시간을 지키면서 제출하는 것이 수험의 성공과 합격에 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 대회 목록을 포함하고 있지만, 일부 설명이 추가되어 있어 원본의 간결함을 해치고 있습니다. 또한, 몇몇 대회에 대한 설명이 원본과 일치하지 않거나 과도하게 상세합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 대회 목록과 일치하지만, 설명이 추가되면서 원본의 정보와 약간의 불일치가 발생합니다. 예를 들어, 특정 대회에 대한 설명이 원본의 맥락과 다르게 해석될 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 일부 불필요한 세부사항이 포함되어 있어 주제에서 약간 벗어나는 경향이 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 대회에 대한 설명이 잘 연결되어 있습니다. 그러나 일부 문장은 다소 중복되거나 불필요한 정보가 포함되어 있어 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 대회 목록을 대체로 정확하게 반영하고 있지만, 설명의 정확성에서 일부 오류가 발생하고 있습니다. 예를 들어, 특정 대회에 대한 설명이 원본의 의도와 다르게 해석될 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 약간의 문제가 있어 전반적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 설명이 과도하게 상세하여 원본의 간결함을 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>0.8395577333725434</v>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 신입생 모집요강에서, 경기지도학과의 인정대회로는 다음과 같은 여러 대회가 포함되어 있습니다:
+1. 한국중연맹회장기전국학생선수권대회 - 이는 남아의 경기지도학과에서 주요 종합평가로, 여러 시니어단위를 상정하여 진행됩니다.
+2. 대한배드민턴협회장기전국학생선수권대회 - 이는 남아의 경기지도학과에서도 중요한 종합성적을 제공하는 대회로, 배드민턴 스포츠를 전문으로 하는 선수들이 출전합니다.
+3. 전국학교대항배드민턴선수권대회 - 여성과 남성의 경기지도학과에서 종합적인 자격을 평가하는 대회로, 다양한 연맹단위를 모두 고려합니다.
+4. 전국종별배드민턴선수권대회 - 이도 남아의 경기지도학과에서, 연맹단위를 중심으로 진행하여 스포츠 성적을 종합적으로 검증합니다.
+5. 전국체육대회 - 이는 학교의 경기지도선수들에게도 포함되어, 종합성과를 재현하고자 마련한 대회로, 다양한 스포츠가 모두 진행됩니다.
+6. 각국제대회 - 이는 해외에서의 전문성과 기술을 보여주는 중요한 무대로, 경기지도학과의 선수들이 자국이나 다른 나라를 방문하여 참가함으로써 성장을 검증합니다.
+7. 주니어국제대회 - 학생부교과의 기본이나 선수들에게도 중요한 무대, 여기서는 국가대표팀이나 주니어팀을 소속으로 하여 경쟁합니다.
+8. 광역시/도협회장기종목대회 - 지역의 교육과정에서는, 이를 위한 주요 성과 평가로 사용하여 학생들을 선발합니다.
+9. 춘계한국고등학교축구연맹전 - 남아의 경기지도학과에서, 이는 플레이어들을 대상으로 하여 축구를 위한 성장을 검증합니다.
+10. 대한축구협회장배전국고등학교축구대회 - 이도 남아의 경기지도학과에서, 여성과 남성을 모두 위한 종합적인 선발대회로 진행하고 있습니다.
+11. 문화체육관광부장관기전국고등학교축구대회 - 이는 지역의 문화적인 요소를 강조하여, 경기에서의 프로페셔빈과 스포츠 정신을 검증합니다.
+12. 백록기전국고등학교축구대회 - 이도 남아의 경기지도학과에서, 여성선수들을 위한 종합평가를 제공하는 대회로 진행됩니다.
+13. 금강대기전국고등학교축구대회 - 이도 남아의 경기지도학과에서, 여성선수들을 위한 종합평가를 제공하는 대회로 진행됩니다.
+14. 대통령금배전국고등학교축구대회 - 이도 남아의 경기지도학과에서, 여성선수들을 위한 종합적인 자격평가를 제공하는 중요한 대회로 진행됩니다.
+15. 부산MBC전국고등학생축구대회 - MBC의 지원을 받아, 여성선수들이 자격을 재정비하는 중요한 행사로서, 스포츠에서의 기술과 리더십도 강조합니다.
+16. K리그 U18 챔피언십 - 이는 남아의 경기지도학과에서, 우수한 성장을 보여주는 대회로, 국제규모의 레전드를 위해 K리그 U18 팀으로부터 선정되어 진행합니다.
+이들 대회들은 경기지도학과에서의 자격을 종합적으로 재현하고, 스포츠를 위한 전문성과 개인발달을 보여주는 중요한 기회가 되어 지원자의 선발에 영향을 미칩니다.</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 주제A와 주제B의 내용을 잘못 전달하고 있으며, 주제B에 포함된 항목들이 원본 텍스트와 일치하지 않습니다. 예를 들어, "줄자스카치"와 "바이러스"는 원본 텍스트에 없는 항목입니다. 또한, 주제A의 "달팽이"는 "Octopus"로 잘못 번역되었습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없으며, 주제의 내용이 서로 다릅니다. 주제B의 항목들이 원본 텍스트와 전혀 다르기 때문에 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 주제에 대한 정보를 제공하고 있으나, 잘못된 정보가 포함되어 있어 주제와의 관련성이 떨어집니다. 원본 텍스트의 주제를 제대로 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 일부 표현이 어색하게 느껴질 수 있습니다. 전반적으로 읽기에는 무리가 없지만, 내용의 정확성이 떨어져서 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 비교적 잘 짜여져 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 주제에 대한 설명이 있지만, 잘못된 정보가 포함되어 있어 논리적인 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 많은 오류가 포함되어 있습니다. 주제A와 B의 항목들이 원본과 일치하지 않기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성 모두에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 주제에 대한 설명이 포함되어 있으나, 잘못된 정보로 인해 원본 텍스트의 의미와 맥락을 제대로 전달하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 비교적 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 원본 텍스트와의 차이로 인해 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>0.8691990282495906</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에서 사용하는 주제들은 아래에 나와 있습니다:
+주제A:
+- 잠자리 (Camping)
+- 무궁화 (Peony)
+- 고양이 (Cat)
+- 양파 (Onion)
+- 달팽이 (Octopus)
+- 오렌지 (Orange)
+주제B:
+- 줄자스카치 (Striped Scarf)
+- 바이러스 (Virus)
+- 여행 계절 (Seasonal Trip)
+- 마스크 (Mask)
+- 시계맥가이버 (Wristwatch)
+- 캔 Coca-Cola (Coke Can)
+수험생은 주제A와 B의 각 1개씩을 선택하여, 그들이 연결된 아이디어를 한 달일에 만들어내는 과정을 진행해야 합니다. 제공된 사물과 이미지로부터 영감을 받아 시각화나 기호를 만들어내는 것이 포함됩니다. 주제선택은 1개씩, 그리고 전체 과정에서의 시간은 5시간이라고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 원문과 상반된 내용을 담고 있습니다. 응답에서는 경기실적우수자전형에서 출결이 반영된다고 주장하고 있어, 원문과의 사실적 일치가 전혀 없습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 출결 점수가 반영되지 않는다고 명시하고 있지만, 응답에서는 반영된다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제에서 벗어난 정보가 많습니다. 원문이 출결 점수의 반영 여부에 대한 질문에 대한 답변인 반면, 응답은 다른 전형에 대한 세부사항을 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 문장이 길고 복잡하여 읽기 어려운 부분이 있습니다. 전반적으로 매끄럽지 않은 표현이 포함되어 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 부족하여 일관된 메시지를 전달하지 못하고 있습니다. 여러 정보가 혼재되어 있어 이해하기 어렵습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문에서 출결 점수가 반영되지 않는다고 명시했음에도 불구하고, 반영된다고 주장하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치가 심각하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 내용을 포함하고 있어 의미적으로 부적절합니다. 원문이 출결 점수의 반영 여부에 대한 질문에 대한 명확한 답변을 제공하는 반면, 응답은 이를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 이해하기 어려운 부분이 많고, 정보가 혼란스럽게 제시되어 있어 명확하게 이해하기 힘듭니다. 여러 주제가 섞여 있어 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>0.7223717776060302</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>학생부교과 전형의 문서에 주어진 내용을 바탕으로, &lt;나&gt;군 실기/실적(경기실적우수자전형)에서는 반영과목의 점수가 성적을 산출하는 방식이 명시되어 있습니다.
+결석일수별로, 120, 90, 60, 30, 0의 점수가 제공됩니다. 이는 해당과목에서 학생이 보유한 각 과목의 성적(점수)을 산정하여, 그 합계로 전형상의 성적을 구성하는 것으로 보입니다.
+따라서 학생부교과 전형에서는, 이 경기실적우수자전형의 경우 출결(성적)을 반영하고 산출합니다.
+그러나 문단에서는 조기취업형계약학과전형의 내용도 제공되어 있지만, 구체적인 성적산출방법에 대해서는 명시하고 있지 않습니다. 그러나 모집단위의 교과 성적(전 과목)을 평균화한 경우에도, 소수점이 세째자리에서 절단하여 산출되는 것으로 보입니다.
+요약하면, 학생부교과전형의 &lt;나&gt;군 경기실적우수자전형에서는 성적(출결)이 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 명확한 정보를 제공하지 않고 있으며, 실제로는 17명을 모집한다고 명시되어 있는 반면, 16명이라는 잘못된 정보를 언급하고 있습니다. 이는 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본에서는 17명을 모집한다고 명시되어 있지만, 생성된 응답에서는 16명이라고 잘못 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않고, 모집 인원에 대한 불확실성을 강조하고 있습니다. 이는 질문의 핵심에 대한 직접적인 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있으나, 원본 정보와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 잘못된 정보를 제공하고 있으며, 이는 사실과 크게 다릅니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 질문의 맥락과는 다소 어긋나 있으며, 정보의 정확성이 결여되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해하기 어렵지는 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>0.8446037041854561</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>제공된 정보에는 인문사회과학대학의 국어국문학과에서 가군(일반학생) 전형으로 모집한 명시적인 인원은 제공되고 있지 않습니다. 합계에는 16명이 나와 있지만, 이를 구체적인 전형의 수로 분해하기는 어려우므로 정확한 답을 제공할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 영어영문학과가 다군 일반학생 전형을 통해 28명을 모집한다고 명시하고 있지만, 생성된 응답은 16명이 모집된다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트의 정보와 상충하는 내용을 포함하고 있으며, 영어영문학과에 대한 구체적인 수치를 잘못 해석하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제를 제대로 다루지 못하고 있습니다. 원본 텍스트의 핵심 정보인 모집 인원 수에 대한 정확한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 흐름이 약간 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 원본과 다르게 전개되고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다. 모집 인원 수에 대한 잘못된 해석이 명백합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 관계가 부정확합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있으며, 부적절한 정보로 인해 의미 전달이 왜곡되었습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 원본 텍스트의 핵심 정보를 명확히 전달하지 못하고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>0.8228931700624899</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>제공된 정보에는 인문사회과학대학의 "영어영문학"과를 구체적으로 지정하고 다군 일반학생전형을 모집한 명시적인 수가 나타나 있지 않습니다. 제공된 내용에서는 합계로 16명이 모집되고 있음을 언급했지만, 구체적인 과목의 세부 사항에서는 영어영문학과를 제외한 수가 명시되어 있지 않습니다. 따라서 정확한 수를 파악하기 위해서는 구체적인 과목 세부 사항이나 학교에서의 제공된 자료가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 간호학과의 신입생 모집 인원에 대한 잘못된 정보를 제공합니다. 원문에서는 22명이라고 명시되어 있지만, 생성된 응답에서는 110명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공하므로 일관성이 없습니다. 원문과의 정보가 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 간호학과의 모집 인원에 대한 정보를 제공하고 있지만, 원문에서 언급된 모집 인원과는 관련이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 문장 구조가 일관되지만, 원문과의 정보 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 부적절합니다. 원문과 관련된 정보가 아닌 다른 정보를 제공하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>0.6971765691674081</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>제공된 문서에서는 "간호학과 교직"(0301)의 일반학생 모집인원이 110명이라고 나타나 있습니다.</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 등급별 점수도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>0.8701967454197431</v>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>수능 영어의 경우, 다음과 같은 등급별 점수가 제시되었습니다:
+등급  점수
+1      139
+2      131
+3      123
+4      115
+5      107
+6      99
+7      91
+8      83
+9      75
+이 정보는 각 등급에 해당하는 학생의 영어 성적을 나타내며, 수험자가 그 등급과 비교하여 자신의 성적을 평가할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 전혀 관련이 없으며, 예술고 학생의 지원 자격에 대한 정보가 아닌 동의어대학에 대한 내용으로 대체되었습니다. 원본 텍스트의 핵심 사실을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 예술고 학생의 지원 자격에 대한 정보가 아닌 다른 내용을 포함하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 예술고 학생의 지원 자격에 대한 질문에 대한 답변이 아닙니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보로 가득 차 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>0.5325849206965262</v>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 20 동의어대학(Dong-eui University)과 같은 다양한 모집단위와 인원이 포함되어 있지만, "예술고"나 "체육대학자연과학 패션디자인학과"와 같은 구체적인 단과학과는 명시되어 있지 않습니다.
+그러나, 모집단위의 "교직"이라는 키워드가 사용되고 합계인원도 제공되어 있으니, Dong-eui University에서는 다양한 학과의 교직자를 모집할 가능성이 있음을 추정할 수 있습니다.
+문서에 제공된 구체적인 정보가 부족하여, Dong-eui University의 지원 기회를 확인해야 합니다. 이 학교가 "예술고"나 "체육대학자연과학 패션디자인학과"의 모집단위를 제공하는지 문서에서 구체적으로 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트는 여자 제자리 멀리뛰기 4등급의 기록이 218~221 cm이고 배점이 275점이라고 명시하고 있지만, 생성된 응답은 전혀 다른 수치와 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 포함하고 있습니다. 원본의 4등급 기록과 배점과는 전혀 다른 내용이 제시되고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 전혀 다른 내용을 다루고 있어 관련성이 낮습니다. 원본의 정보와는 상관없는 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 3
+   - 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 표현이 어색하고 명확하지 않은 부분이 있습니다. 전체적으로 매끄럽지 않은 흐름이 있습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 논리적인 흐름이 부족하고, 원본 텍스트와의 연결이 약합니다. 정보가 일관되지 않아서 전체적으로 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 다르며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보가 포함되어 있어 의미적으로 적절하지 않습니다. 그러나 일부 관련된 주제를 다루고 있어 점수를 부여했습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 어느 정도 이해할 수 있지만, 정보의 불일치로 인해 혼란스러운 부분이 있습니다. 명확하지 않은 표현이 있어 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>0.7912668305204803</v>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>주어진 정보에 따르면, 2024학년도 신입생 모집요강의 "등급제자리 멀리뛰기" 부문에서는 여자아이스럽트를 평가하기 위한 5단계 등급제와 관련된 정보가 제공됩니다. 4등급을 나타내는 기록은 다음과 같습니다:
+- 반드시 지표: 163.1 cm (남성에 비해서는 240.0 cm)
+- 배점: 15.29이하
+따라서, 여자아이스럽트가 제자리 멀리뛰기에서 4등급을 받으려면 지표가 163.1 cm 미만이고, 배점은 15.29이하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 출결 반영 비율이 12%라는 원문과 상충하여 70%로 잘못된 정보를 제공하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 정보를 포함하고 있어 일관성이 없습니다. 원문에서 제시된 출결 반영 비율과 생성된 응답의 내용이 서로 충돌합니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 정보를 제공하고 있지만, 원문에서 언급된 12%와는 관련이 없고, 다른 비율에 대한 설명으로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 논리적 흐름이 약해집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 완전히 다르며, 잘못된 사실을 포함하고 있습니다. 따라서 정확성 점수는 최하입니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>0.7482110960597637</v>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>경기지도학과의 경우, 정시모집요강에서는 출결(경기실적) 반영비율이 70%로 명시되어 있다. 나머지 30%는 학생부교과성적을 반영한다. 이것은 정시모집에서의 합산점수를 구성하기 위해 경기실적과 학업성과(학습지원서류)가 어떻게 평가되는지에 대한 중요한 정보를 제공하며, 이 비율을 고려하여 합산점수를 구성해야 한다.</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군에서 물리치료학과의 모집 인원에 대한 정확한 정보를 제공하지 않고, 오히려 잘못된 정보를 포함하고 있습니다. 원문에서는 물리치료학과가 4명을 모집한다고 명시하고 있지만, 생성된 응답은 해당 정보를 부정하고 있습니다.
+2. Consistency Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 담고 있습니다. 원문은 물리치료학과의 모집 인원을 명확히 제시하고 있지만, 생성된 응답은 이를 부정하며 일관성이 없습니다.
+3. Relevance Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문에서 제시된 주요 정보와 관련이 없습니다. 원문은 모집 인원에 대한 간단한 사실을 제공하는 반면, 생성된 응답은 불필요한 정보와 잘못된 주장을 포함하고 있습니다.
+4. Fluency Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 내용이 부정확하고 혼란스러워서 전반적인 유창성에 영향을 미칩니다.
+5. Coherence Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하고, 원문과의 연결이 약합니다. 원문에서 제시된 정보와 관련이 없기 때문에 일관된 구조를 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원문은 물리치료학과의 모집 인원이 4명이라고 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 없고, 잘못된 정보를 제공하고 있습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 문맥에 맞지 않는 내용을 담고 있습니다.
+9. Understandability Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 혼란스러워서 명확하게 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>0.8142454057927123</v>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>제공된 문장은 동의대학교 2024학년도 정시 신입생 모집요강에서 "물리치료학과"를 포함하지 않고, 해당과목의 모집인원이나 정보를 제공하지 않습니다. 따라서 현재로서는 동의대학교에서 2024학년도 가군에서 물리치료학과에 모집한 정확한 인원을 구하기 위해 이 자료만으로는 계산할 수 없습니다. 동의대학교 입학부에서 제공하는 세부정보나 문의를 요청해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 실기고사 일정이 1월 16일이라고 잘못된 정보를 제공하고 있습니다. 원본 텍스트는 1월 17일로 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있어 일관성이 없습니다. 원본의 날짜와 생성된 응답의 날짜가 다릅니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 주제와 관련이 있으며, 실기고사 일정에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 실기고사 일정에 대한 정보를 명확하게 전달하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 긍정적인 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련이 있지만, 잘못된 날짜로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>0.5710979315412941</v>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>2024학년도 나군(다군)의 실기/실적 전형에서 디자인조형학과의 실기고사는 1월 16일로 계획되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "면접고사의 우선순위를 결정할 수도 있는 2단계 참여기업 면접결과"에 대한 언급은 원문에 포함되지 않은 정보로, 다소 부정확한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원문과 일부분 일치하지만, 면접고사와 관련된 추가 정보는 원문과의 일관성을 떨어뜨립니다. 원문에서는 수능 최저 학력 기준이 없다고만 명시되어 있으므로, 면접고사에 대한 언급은 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊습니다. 수능 최저 기준이 없다는 점을 명확히 하고 있으며, 관련된 추가 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 면접고사에 대한 언급이 추가되면서 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 최저 기준이 없다는 사실을 정확하게 전달하고 있지만, 면접고사와 관련된 정보는 원문에 포함되지 않은 내용으로 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문과 의미적으로 잘 연결되어 있으나, 면접고사에 대한 언급이 원문과의 맥락에서 다소 벗어나는 경향이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>0.6367488509775094</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 동의대학교의 2024학년도 응용화학과(소프트웨어융합학과)의 수능 최저기준이 명시되지 않습니다. 지원자격에서는 "수능 최저학력기준 없음"이라고 나와 있어, 이는 2024학년도의 이 과목에 대해 특정 수능 최저기준을 요구하지 않음을 시사합니다. 그러나 면접고사의 우선순위를 결정할 수도 있는 2단계 참여기업 면접결과에서는 다시 따져보아야 합니다.</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답에는 신설된 학과 목록에 대한 여러 가지 부정확한 정보가 포함되어 있습니다. 예를 들어, "라이프융합학부"가 "라이프생활문화학"으로 잘못 표기되었고, "산업ICT기술공학"이라는 학과는 원본 텍스트에 포함되어 있지 않습니다. 또한, "정보통신공학"과 "디자인조형학과"는 원본 텍스트에 언급되지 않았습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트에 포함되지 않은 학과들이 추가되어 있으며, 기존 학과의 이름도 변경되어 있습니다. 이러한 점에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있지만, 원본 텍스트에 포함되지 않은 정보가 많아 주제와의 관련성이 떨어집니다. 그러나 여전히 신설 학과에 대한 언급이 있으므로 완전히 무관하다고는 할 수 없습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 학과에 대한 정보를 나열하고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 추가된 정보가 원본 텍스트와 잘 연결되지 않아 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답에는 원본 텍스트에 없는 정보가 포함되어 있으며, 일부 학과의 이름이 잘못 기재되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있어 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있지만, 원본 텍스트와의 의미적 일치가 부족합니다. 추가된 정보가 원본의 맥락과 잘 맞지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 정보가 혼란을 줄 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>0.9554869982398583</v>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프생활문화학(뷰티비즈니스학, 산업ICT기술공학)
+5. 경기지도학과
+6. 정보통신공학 (전기전자통신공학부에서)
+7. 디자인조형학과
+이들은 모집중지나 교육과정의 개편을 통해 도입된 것으로, 대학원에서는 '학생부종합(평생학습자전형)'이라는 신설한 전형과 연계될 가능성도 있음을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고 있으며, 잘못된 정보(일반학생전형의 반영비율 등)를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 전형요소 반영비율에 대한 정보가 상충합니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 다른 전형에 대한 정보로 흐르고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 일관성이 떨어져서 다소 혼란스러울 수 있습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 논리적인 흐름이 부족하며, 원본 텍스트와의 연결이 약합니다. 전형요소 반영비율에 대한 명확한 설명이 결여되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보가 포함되어 있습니다. 원본의 정확한 반영비율을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성 모두에서 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 주제에서 벗어난 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 읽기 쉬운 부분이 있지만, 내용의 일관성이 부족하여 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>0.8435461450401568</v>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>제공된 정보에는 동의대학교(나군)의 2024학년도 학생부종합(성인학습자전형)의 세부 사항이 명시되지 않아서 정확한 반영비율을 결정하기는 어렵습니다. 그러나 제공된 내용에 따르면, 일반학생전형의 경우:
+- 수능(국어, 수학, 영어)은 모두 100%가 반영됩니다.
+- 실기/실적에는 디자인조형학과나 제외하고 체육학과의 경우, 30%가 수능(국어, 수학, 영어)을 반영하고 70%는 실기/실적에서 평가됩니다.
+성인학습자전형의 경우 구체적인 비율은 제공되지 않았기 때문에, 이를 정확히 결정하려면 동의대학교가 제공한 모집요강을 추가로 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 모집단위에 대한 정보를 잘못 전달하고 있습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시되어 있지만, 생성된 응답에서는 인문사회과학대학, 상경대학, 한의예과 등 다른 학과들이 포함되어 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 떨어집니다. 원본 텍스트의 모집단위와 생성된 응답의 모집단위가 서로 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 모집단위와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 학과에 대한 정보를 나열하고 있지만, 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 여러 학과를 언급하고 있어 정확성이 낮습니다. 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 일관성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>0.8457844232246891</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>동의대학교(Dong-eui University)에서는 다음과 같은 모집단위에서 수능 가산점이 적용됩니다:
+1. 인문사회과학대학, 상경대학 모집단위 - 국어(화법과작문 또는 언어와매체), 수학(미적분 또는 기하) 및 영어에서의 표준점수를 사용하여 가산점을 계산합니다.
+2. ICT융합공과대학 - 국어(화법과작문 또는 언어와매체), 수학(미적분 또는 기하)에서의 표준점수를 사용하여 가산점을 계산합니다.
+3. 한의예과 - 국어(화법과작문 또는 언어와매체), 수학(미적분 또는 기하)에서의 표준점수를 사용하여, 특히 백분위에 따라 탐구영역을 지정한 변환표준점수로 가산점이 계산됩니다.
+4. 공과대학 - 국어(화법과작문 또는 언어와매체), 수학(미적분 또는 기하)에서의 표준점수를 사용하여, 가산점을 계산합니다.
+이들은 ICT융합공과대학(국어, 수학, 영어, 탐구)에서도 마찬가지로 상위 3개의 영역의 표준점수를 사용하여 전형성을 산출합니다.
+이러한 가산점은 ICT융합공과대학에서는 수학(미적분 또는 기하)를 선택한 경우, 국어, 수학, 영어, 탐구의 표준점수에 0.1을 곱한 가산점이라고 되어 있습니다.
+요약하면, Dong-eui University는 인문사회과학대학, ICT융합공과대학, 한의예과, 공과대학에서 수능성적을 기반으로 가산점이 계산되는 모집단위에서 일부 전형의 고려를 합니다.</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교의 2024학년도 가군 수능에서 수능 성적을 100% 반영한다고 명시된 사실과 정반대의 내용을 담고 있습니다. 수능 성적이 반영되지 않는다고 주장하고 있으며, 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 완전히 모순되는 내용을 포함하고 있습니다. 수능 성적 반영 여부에 대한 정보가 상충하므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 전형에 대한 정보를 제공하고 있으나, 주제와 관련된 핵심 사항인 수능 성적 반영에 대한 정보가 잘못되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 내용의 정확성에 문제가 있어 전반적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 주제와 관련된 정보가 잘못되어 있어 일관된 흐름을 유지하기 어렵습니다.
+6. Accuracy Score (1-5): 1
+   - 응답의 내용은 원본 텍스트와 완전히 상반되며, 사실적으로 부정확합니다. 수능 성적 반영 여부에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 평가 기준에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 심각한 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 학생부교과에 대한 정보가 포함되어 있으나, 주제와 관련된 핵심 정보가 잘못되어 있어 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>0.7592161517076171</v>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교(지방 1부)의 경우, 수능 성적은 반영하지 않는다고 명시되어 있습니다. 이는 "수능 최저학력기준 없음"을 의미하며, 이에 따라 모집요강에서는 지원자를 선발할 수 있는 수능 성적 기준이나 비율을 제공하지 않습니다.
+그러나 학생부교과가 전형의 90%를 차지한다는 것은, 동의대에서도 학생부로 제공된 성과와 경험을 중시하고 있음을 나타냅니다. 이를 위해 6년 과정(읍·면)지역에서의 교육과정, 그리고 학습기회가 제공된 중·고등학교에서의 성과급여를 포함하는 '학생부교과(농어촌학생전형)'로 구성된 지원자 기록은, 이를 바탕으로 모집인에게서 선발하는 과정을 진행합니다.
+학생부교과의 성적을 전체적으로 이해하기 위해, '40페이지 Ⅵ. 학습부분'에서 제시된 학생부교과성적 반영방법을 꼭 참조하시는 것이 필요합니다. 여기서는 개인의 구체적인 상세사가 제공되지 않아, 전체 모집요강과 '학습부분'에서 제시된 기준을 바탕으로 성과를 해석하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 실기고사 날짜에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트에서 명시된 날짜(2024년 1월 16일)를 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 실기고사 날짜를 명확히 제시하고 있지만, 생성된 응답은 날짜가 명시되어 있지 않다고 주장하고 있습니다. 이는 일관성이 전혀 없습니다.
+3. Relevance Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 실기고사 날짜에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 없는 정보(제출서류 기한 등)를 포함하고 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 문장 구조는 잘 되어 있지만, 원본 텍스트와의 관련성이 떨어져서 논리적인 흐름이 약간 부족합니다. 실기고사 날짜에 대한 정보가 없다는 주장은 원본과의 연결이 약합니다.
+6. Accuracy Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사 날짜에 대한 정확한 정보를 제공하지 않고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 매우 낮은 점수를 받고 있으며, 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있습니다. 실기고사 날짜에 대한 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 혼란스러울 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>0.805851283852614</v>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 2024학년도 동의대학교 6가군(신입생) 정시모집요강에서 실기고사 날짜나 시간이 명시되어 있지 않습니다. 그러나 제출서류의 제출기한은 2024년 1월 3일부터 12월 금요일까지 오후 17:00까지이므로, 그 시기에서 고려해야 합니다. 정확한 실기고사 날짜는 동의대학교에서 제공하는 모집요강이나 관련 문자를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '디자인조형학과'와 '체육학과'가 제외된다고 언급하고 있지만, 원문에서는 '한의예과', '디자인조형학과', '체육학과', '경기지도학과'가 모두 제외된다고 명시되어 있습니다. 따라서 중요한 정보가 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 제외된 학과의 목록이 불완전합니다. 원문에 포함된 '한의예과'와 '경기지도학과'가 언급되지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 직접적으로 관련된 정보를 제공하고 있습니다. 나군 수능(일반학생전형) 전형에서 제외되는 학과에 대한 질문에 대한 답변으로 적절합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장입니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원문과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제외된 학과의 정보를 정확하게 반영하지 못하고 있습니다. 중요한 세부사항이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 정확성에서 큰 결함이 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 누락된 정보로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 다만, 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>0.8775489932782345</v>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>2024학년도 나군의 수능(일반학생전형) 전형에서는 '디자인조형학과'와 '체육학과'가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 올바르게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 점에서 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>0.8289204331874925</v>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>2024학년도 Dong-eui University의 다군(성인학습자)전형에서는 수능 최저기준이 적용되지 않습니다. 모집요강에서는 "나. 수능 최저학력기준 없음(수능 미응시자도 지원가능)"이라고 명시하여, 모집에 참가할 수 있는 사람들을 위한 것으로 나타났습니다.</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 '보육·가정상담학과'와 '경제금융보험학과'에 대한 정보를 포함하고 있지만, 이는 원본 텍스트에 명시된 학과 목록과 일치하지 않습니다. 원본 텍스트에 언급된 학과들은 전혀 다르며, 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족합니다. 원본 텍스트의 학과 분리 내용과 생성된 응답의 내용이 서로 충돌합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대의 학과 분리에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 관련이 적습니다. 원본 텍스트의 학과 목록과는 다른 학과들이 언급되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전체적으로 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 불일치로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>0.7516118748297382</v>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>2024학년도 Dong-eui University에서는 '보육·가정상담학과'를 '아동학과'로, '경제금융보험학과'를 '금융경영학과', '정보경영학부(경영정보학, e비즈니스학)'을 '경영정보학과' 및 'e비즈니스학과'로 학부에서 학과로 분리했습니다.</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 정보경영학부 → 경영정보학과, e비즈니스학과
+2. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+3. 신소재공학부 → 신소재공학과, 고분자나노공학과
+4. 건설공학부 → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+5. 화학환경공학부 → 화학공학과, 환경공학과, 응용화학과
+6. 바이오응용공학부 → 의생명공학과, 바이오의약공학과, 식품공학과
+7. 디자인공학부 → 인간공학과, 제품디자인공학과
+8. 산업융합시스템공학부 → 산업경영빅데이터공학과
+9. 전기전자통신공학부 → 전기공학과, 전자공학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원서접수 마감일에 대한 잘못된 정보를 포함하고 있습니다. 원서접수 마감일이 2024년 1월 6일이 아니라 2024년 1월 3일부터 12월 12일로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트의 마감일과 생성된 응답의 마감일이 서로 다릅니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 질문에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결되어 있으며, 마감일에 대한 정보를 일관되게 전달하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 긍정적인 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 잘못된 사실을 기반으로 하고 있어 전체적으로는 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>0.9575608611710799</v>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서는 원서접수를 하기 위한 마감일이 2024년 1월 3일부터 12월 12일 오후 17:00까지로 정해졌습니다.</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대 2024학년도 전형 요소 변화에 대한 정보가 아닌, 전형 요소 반영비율 및 인원사정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트의 주요 내용과 일치하지 않으며, 전형 요소 변화에 대한 구체적인 세부사항이 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 부족합니다. 원본 텍스트는 전형 요소의 구체적인 변화에 대해 설명하고 있지만, 생성된 응답은 전형 요소 반영비율과 인원사정에 대한 설명으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련성이 낮습니다. 원본 텍스트는 전형 요소의 변화에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 전형 요소 반영비율 및 인원사정에 대한 설명으로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성과 관련성이 떨어지기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 주제를 다루고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다. 각 항목이 독립적으로 나열되어 있어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 전형 요소 변화에 대한 구체적인 내용이 누락되어 있으며, 잘못된 정보가 포함될 가능성이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 맞지 않는 내용이 포함되어 있어 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 일관성과 관련성이 떨어져 전체적인 이해를 방해합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>0.8088765714569095</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>제공된 문서에서, 동의대(Dongyang University)의 2024학년도 정시모집에서 주요한 전형요소 변경사항은 다음과 같습니다:
+1. **전형요소 반영비율**: 수시, 정시모집에서의 학생부, 교과, 수능 성적을 어떻게 기준으로 평가하는지를 나타내는 '전형요소 반영비율'이 다섯 개의 구조화된 부분으로 제시됩니다.
+2. **인원사정**: 모집단위에서 학생을 선발하는 '인원사정'이라는 구조가 명확해졌습니다.
+3. **수능(일반학생전형)**:
+   - **위주&lt;가&gt;군 (273일괄)**: 이는 '기준학생부'를 중심으로, 합산100X의 비율을 반영하고 있음.
+   - **위주&lt;나&gt;군 (401일괄)**: '교과(학생부)'를 중심으로, 합산100X의 비율을 반영하고 있음.
+   - **한의/예과수학(미적분 /기하)**: '일반학생전형'에서는, 합산100X를 가진 '&lt;다&gt;군'이 896명을 모집한다고 나타납니다.
+   - **위주&lt;나&gt;군 (일반학생전형)**: '교과(학생부)'를 중심으로, 합산100X의 비율을 가지고 70X, 30X의 계열이 나뉘어 모집한다고 명시되어 있음.
+   - **위주&lt;나&gt;군 (경기우수자전형)**: '실기/실적'을 중심으로, 7일괄의 학생부를 가진 경기지도학과에서는 18X, 12X의 비율이 반영됩니다.
+   - **위주&lt;나&gt;군 (재직자전형)**: '학생부종합'을 중심으로, 정원외에서는 60X를 가진 재직자전형이 모집됩니다.
+   - **위주&lt;나&gt;군 (성인학습자전형)**: '학생부종합'을 중심으로, 정원내에서는 7X를 가진 성인학습자전형이 모집됩니다.
+   - **위주&lt;나&gt;군 (조기취업형계약학과전형)**: '학생부종합'을 중심으로, 정원외에서는 21일괄의 재직자전형이 모집됩니다.
+4. **교과학적 구성**: '교과'를 중심으로 한 여러 군에서의 비율, 그리고 '학생부', '수능', '실기/실적'을 포함하는 다양한 구조가 제시되어 있음.
+5. **정원과 비정원**: 모집단위에서의 '정원(정규학생)', '비정원(성인학습자, 재직자)'을 구분하여 다양한 전형과 그들이 대상인 사람에게 어떤 요소를 중시하는지가 명확해졌음.
+6. **일괄비율**: '합산100X'라는 개념이 전형의 성적을 기준으로, 다양한 군에서 모든 요소가 일괄적으로 100X를 사용하고 있음.
+이러한 정보들을 바탕으로, Dongyang University의 2024학년도에서는 수시모집과 정시모집간의 다양한 전형요소가 변경되어 선발기준이나 비중을 명확하게 제시하고 있음을 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 실기 비중에 대한 정보를 제공하지만, 수능(국어영역 표준점수)의 비중으로 잘못 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기 비중에 대한 정보가 잘못된 방향으로 해석되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 포함하고 있어 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 유창하게 작성되었으나, 내용의 정확성 문제로 인해 완전한 유창성을 평가하기 어렵습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 2
+   - 응답은 사실과 다르며, 실기 비중에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 낮은 점수를 기록하고 있으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로 관련이 있지만, 잘못된 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>0.8072009938212104</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 가군의 신입생 모집요강에 따르면, 일반학생전형 (실기/실적)에서는 수능(국어영역 표준점수)의 비중이 70%입니다.
+</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공의 이름과 구성을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, "로, 구성되어 있습니다." 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>0.8886076731125393</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>2024학년도 Dong-eui University에서 신설된 라이프융합학부의 세부 전공은 "스타트업창업투자학", "뷰티비즈니스학"과 "라이프생활문화학"로, 구성되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 체육학과와 레저스포츠학과가 언급되었으나, 생성된 응답에서는 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과가 언급되어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과를 언급하고 있어 일관성이 없습니다. 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 특정 학과에 대한 정보를 제공하는 반면, 생성된 응답은 다른 학과에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되었으나, 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 잘못된 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련이 없는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본과 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>0.7933352003843688</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>제공된 문헌정보에 따르면, 2024학년도 가군의 신입생을 위한 모집요강에서는 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과의 3개 학과가 제공된 서류면접을 포함한 전형요소를 근로합니다. 이는 '모집단위전형요소 반영비율'에서의 구체적인 비율(60%:40%:40%)을 나타내며, 이를 바탕으로 각 학과가 제공하는 실기고사에 참여해야 한다고 결정됩니다.
+요약하면, 동의대학교 2024학년도 가군에서 실기고사에 참여할 학과는 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과입니다.</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 실기/실적 위주 전형 지원 가능한 학과에 대한 정보를 제공하지 않고, 다른 학과들에 대한 언급과 실기/실적 위주의 전형이 명시되지 않았다는 내용으로 대체하고 있습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 전혀 다른 학과들에 대한 정보를 제공하고 있습니다. 원본 텍스트에서 언급된 학과들은 전혀 언급되지 않았고, 내용이 상충합니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변으로 적절하지 않습니다. 주제에서 벗어난 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 적절성이나 관련성 부족으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트에서 제공된 학과 목록이 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받으며, 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 주제와 관련이 없기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>0.6731067685510086</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>제공된 정보에서는 동의대학교 2024학년도 신입생 모집요강에서 '스마트호스피탈리티학과'나 '미래형자동차학과'나 '소프트웨어융합학과'를 지원하는 학생이 실기/실적을 중시한다고 명시된 정보가 없습니다. 모집단위의 전형요소 반영비율에는 '서류 면접'이 60%, 40%를 차지하고, 그것은 학업 성과나 기술적인 평가로 구성된 것으로 보입니다. '스마트호스피탈리티학과'와 '미래형자동차학과'에서는 이 면접을 중요하게 고려한 비율이 나타나 있지만, 정확한 실기/실적 위주의 전형은 명시되어 있지 않습니다.
+학과에 대해서는 'IT융합부품소재공과대학'이나 '공학 소프트웨어융합학과'가 IT관련일 수도 있지만, 정확한 내용은 제공되지 않습니다. 이러한 학과에 대해 '실기/실적'을 중시하는 전형요소가 포함된 정보를 구체적으로 확인하거나, 동의대학교에서 '실기/실적'을 중시한다고 명시한 모집단위가 제공되지 않은 경우, 문의하거나 자세한 정보를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "스타트업창업투자학"의 영어 번역이 "Startup Entrepreneurship Finance"로 제시된 것은 다소 부정확할 수 있으며, "라이프생활문화학"의 번역도 "Lifestyle Studies"로 제시된 점에서 약간의 차이가 있습니다. 전공의 본질은 잘 설명되었으나, 세부적인 번역에서 약간의 오해가 있을 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 전공 목록과 신설된 학부에 대한 설명이 일치하며, 추가적인 설명도 원본의 내용을 잘 보완하고 있습니다. 다만, 전공의 세부 설명이 원본에 포함되어 있지 않기 때문에 약간의 일관성 저하가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 라이프융합학부의 전공에 대한 질문에 대해 직접적으로 답변하고 있으며, 추가적인 정보도 제공하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있어 완벽한 유창성에는 미치지 못합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전공에 대한 설명이 자연스럽게 이어집니다. 그러나 추가된 설명이 원본 텍스트와의 연결이 약간 느슨할 수 있어 완전한 일관성에는 다소 부족함이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전공에 대한 정확한 정보를 제공하고 있으나, 전공의 영어 번역에서 약간의 차이가 있어 완전한 정확성에는 미치지 못합니다. 전반적으로는 정확한 정보를 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받을 수 있습니다. 그러나 세부적인 번역에서의 차이로 인해 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 추가된 설명이 원본의 내용과 약간의 차이를 보일 수 있어 완전한 적절성에는 미치지 못합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 완전한 이해 가능성에는 다소 부족함이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>0.9414914013226284</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부 신설 정보가 궁금합니다. 이 학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>동의대학교에서 라이프융합학부가 신설되었고, 다음과 같은 주요 전공들이 제공됩니다:
+- 스타트업창업투자학 (Startup Entrepreneurship Finance)
+- 뷰티비즈니스학 (Beauty Business)
+- 라이프생활문화학 (Lifestyle Studies)
+이들 전공은 기업가정신, 미용/뷰티산업의 성장과 사회문화적 요소를 결합한 교육을 제공하여, 스타트업에서부터 고급마케팅에 이르기까지 다양한 영역의 전문가를 양성합니다.
+정보는 제공된만큼, 구체적인 과목명이나 교육 세부 사항에 대한 자세한 내용은 동의대학교가 관리하는 공식 문서를 참조해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하지 않고, 지원 요건이나 제출 서류에 대한 구체적인 정보가 없다고 말하고 있습니다. 이는 원문에서 명확히 언급된 사실을 무시하고 있으며, 잘못된 정보로 이어질 수 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원문과 일치하지 않는 정보를 제공합니다. 원문에서는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시하고 있지만, 생성된 응답은 이를 부정하는 듯한 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제에서 벗어난 부분이 많습니다. 원문에서 제공하는 정보에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 가지 주제를 다루고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 정보가 명확하게 연결되지 않아 독자가 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원문에서 제공하는 정확한 정보를 반영하지 않고 있으며, 잘못된 해석을 포함하고 있습니다. 이는 정보의 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았으며, 여러 차원에서 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 적절하지 않은 부분이 많습니다. 원문의 핵심 내용을 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3  
+   - 생성된 응답은 일부 부분에서 명확하게 전달되지 않아 이해하기 어려운 부분이 있습니다. 정보가 복잡하게 제시되어 있어 독자가 쉽게 이해하기 힘들 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>0.7025830607020969</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>제공된 정보에는 특수목적고등학교(이하 '특수고'라고 함)를 위한 구체적인 지원요건이나 제출서류가 명시되어 있지 않아, 정확한 답을 내기는 어려우겠습니다.
+그러나 동의대학교에서는 '성인학습자(정원내·외)전형'과 '구분제출서류'를 제시하고 있습니다. '성인학습자'(정원내는 대학에 들어갈 수 있는, 정원외는 그렇지 않은)로서의 특정 요건이나 제한을 명시하고 있다면, '특수고'를 대상으로 한 경우에는 그러한 요건이 부과되지 않을 가능성이 있습니다.
+동의대학교에서 '특수고'를 위해 지원하는경우, 일단 정보제공자인 동의대학교나 관련 입학 상담사와 개별적으로 문의하여 그들에게서 구체적인 지시나 요건을 확인해야 합니다. 이를 통해 '성인학습자'전형의 제출서류가 유효한지, 아니면 '특수고'에게도 사용할 수 있는지를 정확히 이해할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 정확한 정보를 제공하지 않고 있으며, 잘못된 학과와 모집 인원에 대한 정보를 포함하고 있습니다. 
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있으며, 원본의 내용을 전혀 반영하지 않고 있습니다. 
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 관련된 주제를 다루고 있지만, 주제에 대한 정확한 정보가 부족하여 관련성이 낮습니다. 
+4. Fluency Score (1-5): 4  
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 정확성 문제로 인해 전체적인 흐름이 방해받습니다. 
+5. Coherence Score (1-5): 3  
+   - 응답의 구조는 어느 정도 일관성을 가지고 있으나, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약해집니다. 
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 
+7. Multidimensional Quality Score (1-5): 1  
+   - 전반적으로 모든 품질 차원에서 낮은 점수를 받으며, 사실성, 일관성, 정확성에서 심각한 문제가 있습니다. 
+8. Semantic Appropriateness Score (1-5): 2  
+   - 의미적으로는 관련된 주제를 다루고 있으나, 제공된 정보가 부정확하여 적절하지 않습니다. 
+9. Understandability Score (1-5): 3  
+   - 문장은 이해할 수 있으나, 내용의 정확성 부족으로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>0.7624912888461354</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신입생 모집요강에 따르면, 상경대학, 인문사회, 스마트호스피탈리티학과, 미래형자동차학과, ICT공과대학의 공학부와 소프트웨어융합학과에서 각각 7명을 모집하고 있다. 이를 보면, 이 학과들은 동일한 수의지원자를 가지므로 특정 학과에서 가장 많이 모집하는 것을 구체적으로 제공할 수 없습니다. 그러나 모집단위의 수에서만 보면, 이들 학과가 동일한 비중을 차지하고 있는 것으로 판단됩니다.</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 지원 자격에 대한 정보를 제공하고 있으며, 특수목적고 출신자는 지원할 수 없다는 점을 잘 반영하고 있습니다. 그러나 "2024학년도 정시 신입생 모집요강"에 대한 언급은 원문에 명시된 내용과는 다소 차이가 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일치하는 부분이 있지만, 추가된 정보가 원문과의 일관성을 떨어뜨리는 요소가 있습니다. 특히, 지원 규칙에 대한 설명이 원문에서 언급된 내용과 다소 상충하는 부분이 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 원문에서 다루고 있는 주제와 관련이 깊습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 점이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 문장에서 정보의 연결이 매끄럽지 않은 부분이 있어 약간의 개선이 필요합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 특정 세부사항에서 약간의 차이가 있어 완전한 정확성에는 미치지 못합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 질문의 맥락에 적절하게 대응하고 있습니다. 다만, 일부 추가 정보가 원문과의 의미적 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다. 따라서 명확성과 간결성을 높일 필요가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>0.78371324116135</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>아니요, 동의대학교에서는 특수목적고(국제고, 체육고, 예술고)를 졸업한 경우 지원하지 않을 것입니다. 2024학년도 정시 신입생 모집요강에서는, "행정구역은 초·중·고등학교 재학 당시의 행정구역 단위를 적용하며 , 초·중·고등학교 입학 당시 읍·면 지역이 \n재학 도중 또는 졸업 이후 동으로 개편된 경우 소재지를 읍·면 지역으로 간주하여 자격을 인정합니다"라고 명시하고 있어서, 이는 특수목적고의 경우에도 해당한다고 가정합니다. 그러나 구체적인 지원 규칙은 "학생부교과 (농어촌학생전형 )는 학부(과)별로만 선발합니다"라고 명시하여, 국제고나 같은 특수목적고를 지원하기에는 한계가 있을 수 있음을 의미합니다.
+이 부분에 대해서는 동의대학교나 면접시스템과 상의하여 정확한 지원 가능 여부를 확인하는 것을 강력히 권장합니다.</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 소스 텍스트에서 명시된 정보와 상충하는 내용을 포함하고 있습니다. 소스 텍스트는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다고 명확히 언급하고 있지만, 생성된 응답은 가상의 성적 산출 방법을 제시하고 있습니다. 이는 사실과 다르며, 소스의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 소스 텍스트와 일관성이 없습니다. 소스 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적 계산을 제시하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 소스 텍스트의 주제와 관련이 있지만, 소스에서 요청한 정보와는 다소 벗어나 있습니다. 소스 텍스트는 평균 성적에 대한 정보가 없음을 강조하고 있으며, 생성된 응답은 가상의 성적 계산을 포함하고 있어 관련성은 있지만 주제에서 벗어난 부분이 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적인 흐름이 있지만, 소스 텍스트의 주제와는 다소 동떨어진 내용이 포함되어 있어 일관성이 떨어집니다. 성적 계산 방법에 대한 설명이 포함되어 있지만, 소스의 주제와는 맞지 않는 정보입니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 소스 텍스트의 사실과 일치하지 않으며, 가상의 성적 계산을 제시하고 있습니다. 이는 정확한 정보가 아니므로 낮은 점수를 부여합니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 소스 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 정보를 포함하고 있습니다. 이는 의미적으로 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성과 관련성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>0.7482564922128476</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 2024학년도 소프트웨어공학부의 합격자들이 가지고 있을 수 있는 구체적인 성적 정보가 명시되어 있지 않습니다. 그러나, 국어, 수학, 영어, 과학(탐구)에서의 일반적인 성적 산출 방법을 보여주고 있습니다.
+합격자들이 전형성적을 구하는 경우, 그들은 국어, 수학, 영어, 과학(일반/특정 주제)에서의 점수를 계산한 다음 가중치를 고려하여 합산을 해야 합니다.
+이는 모집요강에서 제공된 방법과 비슷하게:
+- 국어: 104점
+- 수학 (평균/미적분): (47+59)/2 = 53점
+- 영어: 115점
+- 과학(일반, 물리Ⅰ, 화학Ⅰ)의 평균을 구하면: (139+131+123)/3 ≈ 131점
+이를 합산하여 일시적인 성적 산출은:
+104 + 53 + 115 + 131 = 303점
+미적분에서의 가중치를 고려하여 (평균 수학 점수 * 0.1):
+303 + (53 * 0.1) = 303 + 5.3 = 308.3
+소수점을 세자리로 반올림하면, 합격자들의 평균 성적은 약 308점이라고 가정할 수 있습니다.
+그러나 이는 모집요강에서의 일반적인 방법만을 기반으로 한 가상적인 계산입니다. 소프트웨어공학부나 전국적인 합격자들의 정확한 평균 성적을 제공하기는 불가능합니다. 소스에서 제공된 구체적인 학생들의 성적, 고등학교나 대학의 표준화 방정식이나 가중치를 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어공학부의 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 사실을 반영하고 있지만, "구체적인 성적 정보가 명시되지 않아"라는 표현은 원문에서 명시된 내용을 다소 왜곡하고 있다. 원문은 정보가 아예 포함되어 있지 않다고 명확히 언급하고 있다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, "구체적인 성적 정보가 명시되지 않아"라는 표현은 원문과의 일관성을 떨어뜨린다. 원문은 정보가 아예 없다고 명확히 말하고 있기 때문에, 이 부분에서 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 요청한 정보와 관련된 내용을 다루고 있으며, 추가적인 정보 검색 방법을 제시하고 있다. 그러나 원문에서 직접적으로 요구한 평균 성적에 대한 정보는 제공하지 않기 때문에 완전한 관련성은 없다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, "그에 대한 포함하지 못한 제공된 자료를 기반으로"라는 부분은 다소 어색하게 표현되어 있어 약간의 유창성 저하가 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보 검색 방법에 대한 제안이 자연스럽게 이어진다. 그러나 원문과의 연결이 다소 약해지는 부분이 있어 완전한 일관성은 없다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보의 정확성을 일부 반영하고 있지만, "구체적인 성적 정보가 명시되지 않아"라는 표현은 원문의 사실을 왜곡하고 있다. 원문은 정보가 아예 없다고 명확히 언급하고 있다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보인다. 사실성과 일관성에서 다소 부족함이 있으며, 유창성과 관련성은 양호하지만 전반적으로 원문과의 연결이 약하다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 의미를 일부 반영하고 있지만, "구체적인 성적 정보가 명시되지 않아"라는 표현은 원문의 의미와 다소 어긋난다. 원문은 정보가 아예 없다고 명확히 언급하고 있다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보 검색 방법에 대한 제안이 명확하다. 그러나 일부 어색한 표현이 있어 완전한 이해를 방해할 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>0.8694177977673955</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 소프트웨어공학부나 2024학년도의 합격자들이 기록한 구체적인 성적 정보가 명시되지 않아, 그에 대한 포함하지 못한 제공된 자료를 기반으로 이 정보를 검색할 수는 없습니다.
+소프트웨어공학부의 합격자들의 평균 성적을 확인하려면, 대학이나 교육기관에서 제공한 정시모집 요강, 합격선발 자료, 그리고 성과 보고서를 확인해야 합니다.
+도움을 구하기 위해 대학이나 교육부처에서 제공한 정보를 검색해보세요.</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2024년 2월 15일 오전 9시에 발표가 이루어진다고 언급하고 있지만, 오후 4시까지의 시간은 원본 텍스트에 명시되어 있지 않으며, "개별 전화 통보"라는 내용도 원본에 포함되어 있지 않습니다. 따라서 일부 정보는 정확하지만, 원본과의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 발표 시간에 대한 세부 사항이 다르며, "개별 전화 통보"라는 내용이 추가되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 질문에 직접적으로 답변하고 있으며, 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽지만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 발표 일정에 대한 정보를 잘 전달하고 있습니다. 그러나 일부 추가 정보가 원본과 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 차이로 인해 정확성이 떨어집니다. 특히, 발표 시간에 대한 정보가 원본과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 관련성이 높고, 유창하며, 일관성이 있지만, 사실성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 추가 정보가 원본과 일치하지 않아 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>0.8750228116071115</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일에 합격자들의 발표가 이루어집니다. 그 시기는 오전 9시부터 오후 4시(현지 시간)로, 인터넷을 통해 진행됩니다.
+이 정보에 대한 출처는 제공된 문서의 내용에서 나왔습니다: "2024. 02. 15.(목) 09:00\n등록 2024. 02. 15.(목) 09:00~16:00\n3차 이후\n(개별 전화 통보)발표"
+그래서, 합격자들의 정식 발표는 2월 15일 오전 9시에 인터넷을 사용하여 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 오히려 그 정보를 확인할 수 없다고 언급하고 있습니다. 이는 원본 텍스트의 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 면접고사 일정과 관련된 정보를 부정확하게 전달하고 있으며, 원본의 내용을 일관되게 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 구체적인 정보를 반영하지 않아 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성에 따라 다소 부정확한 정보가 포함되어 있어 완전한 유창성은 아닙니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트의 정보와 일치하지 않기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접고사 일정에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 면접고사에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 맥락과는 맞지 않는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬운 구조로 되어 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>0.6884723888667034</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>면접고사의 시간은 2024학년도 정시 신입생 모집요강에서 구체적인 일정이나 날짜가 명시되지 않았기 때문에, 제공된 자료에서는 그 정보를 확인할 수 없습니다. 면접고사의 시간을 확인하려면, 대학이나 모집요강에서 제공한 구체적인 일정을 문의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 왜곡하고 있습니다. 응답에서는 수능 최저학력 기준이 명시적으로 나타나지 않았다고 언급하고 있지만, 이는 "최저학력 기준이 없다"는 원문과 모순됩니다. 또한, 모집인원에 대한 정보는 원문에 포함되어 있지 않으므로 추가된 정보가 사실과 다를 수 있습니다.
+2. Consistency Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 최저학력 기준이 없다고 명시하고 있지만, 생성된 응답은 수능 기준이 없다고 하면서도 다른 정보를 추가하여 혼란을 초래하고 있습니다. 이는 원문과의 일관성을 저해합니다.
+3. Relevance Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 추가된 정보가 원문과 직접적으로 관련이 없기 때문에 적절한 관련성을 유지하지 못하고 있습니다. 원문에서 언급된 최저학력 기준에 대한 정보가 중심이 되어야 했습니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 이들 간의 논리적 흐름이 다소 부족합니다. 원문에서 제시된 핵심 정보와의 연결이 약해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 최저학력 기준이 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원문과의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 추가된 정보가 원문의 의미와 다소 어긋나기 때문에 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 표현이 사용되었습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>0.7094838017527388</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>제공된 문헌에서는 한의예과(대학자연)의 수능 최저학력기준이 명시적으로 나타나지 않았습니다. 합계 모집인원은 425명이며, 그 중에는 한의예과(교직 32)를 포함하고 있지만, 구체적인 학력기준은 제공되지 않습니다.
+한의예과에 지원을 고려할 경우, 대부분의 대학이 수능(수학능력검정)에서 일정한 기준을 제시하는 경우가 많기 때문에 지원전에 해당 대학의 공고나 홈페이지를 방문하여 구체적인 수능 요건을 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저학력 기준에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 일관되게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 사실을 정확하게 반영하고 있으며, 추가적인 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>0.6006200394910086</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집에서는 수능의 최저학력기준이 없음을 확인했습니다. 그것은 수능 미실시자도 지원하는 자를 포함한다고 나와 있습니다.</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 충원합격자 발표 일정에 대한 정확한 정보를 제공하지 않고 있습니다. 원본 텍스트에서는 1차, 2차, 3차 이후 발표 일정이 명확히 제시되어 있지만, 생성된 응답은 이러한 세부 사항을 생략하고 있습니다. 또한, "정시모집에서의 인원조정을 위해 사용됩니다"라는 문구는 원본 텍스트와 관련이 없는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 발표 일정에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 발표 일정에 대한 명확한 언급 없이 다른 주제로 넘어가고 있습니다. 이로 인해 두 텍스트 간의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 발표 일정에 대한 구체적인 정보가 부족하여 관련성이 떨어집니다. 원본 텍스트의 핵심 정보인 발표 일정이 생략되었기 때문에, 응답이 주제와 관련이 있지만 충분히 관련성이 높지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해져서 일관된 주제를 유지하지 못하고 있습니다. 발표 일정에 대한 정보가 부족하여 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않고 있으며, 발표 일정에 대한 중요한 세부 사항이 누락되어 있습니다. 또한, 추가된 정보는 원본 텍스트와 관련이 없습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 발표 일정에 대한 정보가 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원본 텍스트와의 연결이 약해져서 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>0.7957519167153555</v>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 2024년 2월 15일(목)부터 2월 20일(화)까지이며, 정시모집에서의 인원조정을 위해 사용됩니다. 합격자가 전화연락을 통해 신속하게 등록 포기를 요청한 경우에는, 그 의사를 타대학에서도 동시에 우리대학에 전달해야 합니다.
+이 기간 내에 환불신청을 위한 온라인 절차는 2024년 2월 14일(수)부터 2024년 2월 20일(화)까지를 제공합니다.
+등록포기나 등록금의 환불을 신청한 후, 이를 변경하는 것은 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 추가합격자 발표 일정에 대한 정보가 포함되어 있지만, 원본 텍스트의 구체적인 날짜와 시간 정보가 누락되어 있습니다. 또한, "정시모집의 기간에 해당합니다"라는 문장은 원본 텍스트와 관련이 없으며, 잘못된 정보로 판단됩니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 특히, "정시모집의 기간에 해당합니다"라는 문장은 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 추가합격자 발표에 대한 정보를 제공하고 있지만, 원본 텍스트의 구체적인 일정과 관련된 정보가 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 주제를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정확한 정보를 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히, 발표 일정에 대한 구체적인 내용이 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>0.8227461516372671</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 2024년 2월 15일(목)부터 2월 20일(화)까지이며, 정시모집의 기간에 해당합니다. 전화연락을 통해 인원수가 미달되어도 그 부족한 인원은 추가모집으로 이월하여 선발합니다.</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 추가모집에 대한 질문에 대해 "추가모집을 고려할 수 있습니다."라고 언급하고 있지만, 원문에서 명확하게 추가모집이 이루어진다고 설명하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, "정확한 답변은 제공된 상세한 문맥이나 더 구체적인 정보가 필요합니다."라는 문장은 원문에서 제공된 정보와 일치하지 않습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 원문과 관련된 내용을 다루고 있습니다. 그러나 원문에서의 구체적인 내용이 충분히 반영되지 않았기 때문에 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있어 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 다소 부족하며, 원문과의 연결이 약해 보입니다. 따라서 일관성 점수는 3으로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 다소 차이가 있으며, 정확한 정보 전달이 부족합니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 전반적으로 중간 정도의 품질을 보입니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과의 의미적 일치가 부족하며, 질문에 대한 적절한 답변을 제공하지 못하고 있습니다. 따라서 의미 적합성 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 다소 모호하게 느껴질 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>0.5345052701215934</v>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>제공된 문장에서는 'metadata'과 'page_content'이 포함되지 않은 정보만 남아 있어, 현재의 주제인 "추가모집을 하나요?"에 대한 답변을 내기는 어려워 진다.
+그러나 AI로서 정보를 확장하지 않고, "추가모집을 하나요?"라고 대답할 수는 있다:
+&gt; 네, 추가모집을 고려할 수 있습니다.
+그러나 정확한 답변은 제공된 상세한 문맥이나 더 구체적인 정보가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌, 성인학습자 전형에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트의 내용과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 평생학습자전형에 대한 구체적인 정보와 요건을 제공하고 있지만, 생성된 응답은 성인학습자 전형에 대한 내용을 다루고 있어 서로 상충합니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 평생학습자전형에 대한 정보를 제공하는 반면, 생성된 응답은 성인학습자 전형에 대한 내용을 중심으로 하고 있어 주제에서 벗어나 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 전체적인 일관성이 부족합니다. 주제가 다르기 때문에 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 특히, 평생학습자전형에 대한 정보가 아닌 성인학습자 전형에 대한 내용을 다루고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제가 다르기 때문에 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 내용의 부적절성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>0.7022431475785703</v>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 신입생을 모집하는 '5&lt;나&gt;군 학생부종합 (평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)'에서는 '평생학습자전형'이라는 지원자격을 제시하고 있습니다.
+그 구체적인 요건은 다음과 같습니다:
+1. **평생학습자(정원내)전형**:
+   - 고교를 졸업(예정)하는 또는 법령에 의해 동등한 학력을 소지하는 자.
+   - 만 30세 이상인 경우도 포함, 1994년 2월 28일 이전에 출생한 사람들을 의미합니다.
+2. **성인학습자(정원외)전형**:
+   - 고교를 졸업(예정)하는 또는 동등한 학력을 소지하는 재직자.
+   - 2024년 3월 1일 기준, 산업체에서의 근무경력이 3년 이상인 사람들을 지원할 수 있습니다.
+   - 또한 "고등교육법 시행령"과 "산업수요에 맞는 고등학교의 경우", 그리고 "평생교육법"을 기준으로, 다음과 같은 조건이 모두 만족해야 합니다:
+     - 1년 이상의 직업교육훈련을 수강한 고등학교에서.
+     - 일정한 산업수요를 가진 고등학교(재직자전형)의 경우, 해당 기관을 선정하여 1년 이상의 과정을 이수한 자.
+     - 특성화고등학교나 다른 평생교육시설에서, 해당 교육과정을 제공하는 경우를 의미합니다.
+   - 산업체로부터의 인정은 '4대 보험'이나 '국가·지방자치단체에서 발급하는 공적증명서'를 통해 가능합니다.
+   - 재직기간은 제출한 지원자의 상태에 따라, 이용 가능하는 기간만을 고려합니다(중복되는 경우를 제외).
+   - 군 의무복무도 재직기간에 포함시킵니다.
+이러한 '평생학습자전형'은, 고용주나 군 의무복무를 통해 경험을 구축하거나 성인에서 교육기회를 이수한 사람들을 지원하는 모집단위로, 학습과 일의 연계가 강조되어 있음을 알 수 있습니다.
+이 정보를 바탕으로 지원자들은, 해당하는 요건에 부합한 경우 '평생학습자전형'을 선택하여 2024년도의 정시모집에서 신입으로 진급할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 지원 자격을 과도하게 확장하여 추가적인 조건을 포함하고 있습니다. 원본 텍스트는 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자라는 간단한 조건만을 제시하고 있지만, 생성된 응답은 나이, 직업 교육 이수, 산업체 적용 범위 등 여러 가지 조건을 추가하고 있습니다. 이러한 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 여러 조건을 포함하고 있어 일관성이 떨어집니다. 원본 텍스트의 간단한 조건에 비해 생성된 응답은 복잡한 조건을 제시하고 있어, 두 텍스트 간의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 정보가 많아 원본의 핵심 내용을 흐리게 하고 있습니다. 원본 텍스트의 지원 자격에 대한 간단한 설명이 필요했으나, 생성된 응답은 너무 많은 세부사항을 포함하고 있어 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서는 띄어쓰기가 부족하여 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 조건을 나열하고 있지만, 이들 간의 논리적 흐름이 다소 부족합니다. 각 조건이 어떻게 연결되는지 명확하지 않아 일관된 구조를 갖추지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 추가된 조건들이 원본의 내용과 일치하지 않습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 다차원적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 많아 원본의 의미를 왜곡할 수 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 너무 많은 정보가 포함되어 있어 핵심 내용을 파악하기 어려울 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>0.7985609652066179</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 신입생을위한 평생학습자전형(평생학습자전형)의 지원자격은다:
+1. 고교를 졸업하거나,법령에 의해 동등한 학력을 소지하는 사람이어야 합니다。
+2. 30세 이상인 고교 졸업(예정)자나 1994년 2월 28일 이전에 출생한 성인학습자로서여야 합니다。
+3. 「초·중등교육법 시행령」제76조의3의1호에 따라,일반고등학교에서 1년 이상의 직업교육훈련과정을 수강한 자나,
+  「초·중등교육법」제90조의1항의10호에 따라,산업수요에 맞는 고등학교를 졸업한 자,
+  「평생교육법」제31조의2항에 따라,특성화고등학교나 같은 평생교육시설에서 해당하는 교육과정을 수강한 자.
+이 지원자격의 산업체 적용범위는:
+① 국가,지방자치단체나 공공단체(소속 직원을 포함)
+② 상시근로자 5인 이상의 사업체에서 (규제를 위반한 경우를 제외하고)
+③ 4대보험(국민연금,산재보험,전국공제시설의원회장연고제도 중 어느 하나)에 1개 이상 가입한 사업체.
+재직기간은2024년 3월 1일을기준으로,총 3년 이상의 경험이어야 하며,지원자가제출한서류를通じて계산됩니다.중복을고려하여합산하지 않습니다.군 의무복무경력도재직기간에 포함시킬수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하지 않고, DONG-EUI UNIVERSITY의 레저스포츠학과에 간다고 언급하고 있습니다. 이는 원본 텍스트의 핵심 정보를 누락하고 있으며, 잘못된 정보로 판단됩니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 실기고사 대기실 및 입실시간에 대한 정보가 아닌 다른 정보를 제공하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 적절성 때문에 점수를 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 문장 구조는 잘 되어 있으나, 원본 텍스트와의 연결성이 부족하여 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 관련성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 적절성 때문에 점수를 낮추었습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>0.5760211804351291</v>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>실기고사를 위해서는 DONG-EUI UNIVERSITY의 레저스포츠학과에 간다고 명시됩니다. 이 정보는 'corpus/2024학년도 정시 모집요강(원본 배포용 제거).pdf'라는 문서에서 나왔습니다.</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보와 관련이 없으며, 잘못된 정보를 포함하고 있습니다. "레저스포츠학과"에서 이루어진다는 내용은 원문과 전혀 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충하는 내용을 담고 있어 일관성이 없습니다. 원문에서 언급된 정보와는 전혀 다른 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원문과 관련이 없으며, 질문에 대한 답변으로 적절하지 않습니다. 실기고사 대기실 및 입실시간에 대한 정보가 전혀 포함되어 있지 않습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 응답의 내용은 일관된 주제를 가지고 있지 않으며, 원문과의 연결이 부족하여 논리적인 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다르며, 원문에서 제공된 정보와는 전혀 다른 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받으며, 원문과의 관련성이 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 주제와도 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 내용이 원문과 관련이 없기 때문에 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>0.5849363908465817</v>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 "레저스포츠학과"에서 이루어지게 됩니다. 제공된 문서에서 '가.'라는 부분에서 명시하고 있습니다: "레저스포츠학과\n모집단위 실기종목 종목별 배점(비율)"이라는 내용을 보면, 그 정보가 제공되고 있음을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 3차 이후의 충원합격자 발표 과정에서 전화 연락이 이루어질 수 있다고 언급하고 있지만, 원문에서는 3차 이후에만 개별 전화 통보가 이루어진다고 명시하고 있습니다. 또한, 전화 연락이 두절된 경우에 대한 언급은 원문에 포함되어 있지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 전화 연락이 두절된 경우에 대한 언급이 원문에 없는 내용입니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 명시된 정보와는 다소 차이가 있습니다. 그러나 주제와 관련된 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않는 부분이 있어 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않는 부분이 많아 정확성이 떨어집니다. 특히 전화 연락에 대한 잘못된 해석이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 일부 내용이 원문과 다르게 해석되어 의미가 왜곡되었습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 3  
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원문과의 불일치로 인해 혼란스러운 부분이 있어 이해하기 어려운 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>0.8103339516237018</v>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>정보에 따르면, 3차 이후의 충원합격자 발표 과정에서는 전화 연락을 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우를 고려하여 전화 주시를 요구합니다. 이는 2024년 2월 15일(목)부터 2월 20일(화)까지의 충원합격자 발표기간 내에 전화를 받지 못하는 경우가 있을 수 있음을 명시하고 있어, 이 기간 동안의 합격자들은 확인해야 합니다.
+따라서 2차 충원합격자부터는 전화에 주의를 기울여 통지나 문제가 있을 경우 신속하게 대응해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 제공된 원문에서 언급된 정보가 포함되어 있지 않다는 점을 정확하게 반영하고 있습니다. 그러나 "police administration and management entrance examination"이라는 표현은 원문에서 "경찰행정학과 수시모집 결과"로 명시된 내용을 다소 왜곡하여 표현하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일치하는 부분이 있지만, "police administration and management entrance examination"이라는 표현은 원문과의 일관성을 떨어뜨립니다. 원문은 수시모집 결과에 대한 정보가 없다고 명시하고 있으나, 응답은 이를 다소 다르게 해석하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 요청된 정보와 관련이 있으며, 수시모집 결과에 대한 정보를 찾기 위한 방법을 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "A I'm sorry" 부분은 불필요한 요소로 보이며, 문장의 흐름을 약간 방해합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원문과의 연결이 명확합니다. 그러나 원문과의 일관성이 떨어지는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보의 부재를 정확하게 반영하고 있지만, "police administration and management entrance examination"이라는 표현은 원문의 정확한 내용을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으나, 일부 표현에서 원문과의 일관성이 떨어지는 점이 아쉽습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 대체로 일치하지만, 특정 표현에서 원문의 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 표현이 원문과의 일관성을 떨어뜨려 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>0.7386206277176707</v>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>A I'm sorry, but the provided context does not contain any information regarding the results of the police administration and management entrance examination for the year 2023. To obtain this data, you may need to refer directly to relevant official announcements or institutions that conduct these exams.</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 수능에 응시하지 않으면 정시모집에 지원할 수 없다는 원문 내용을 왜곡하고 있습니다. '수능 최저학력기준이 없음'이라는 정보는 잘못된 해석이며, 이는 수능에 응시하지 않아도 지원할 수 있다는 잘못된 주장을 포함하고 있습니다.
+2. Consistency Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명시하고 있지만, 생성된 응답은 수능에 응시하지 않아도 지원할 수 있다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 주제에서 벗어나 있습니다. 원문이 명확한 규정을 제시하고 있는 반면, 생성된 응답은 혼란을 초래하는 내용을 포함하고 있습니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 수능에 응시하지 않으면 지원할 수 없다는 사실을 왜곡하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 관계가 부정확하고 혼란을 초래합니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 왜곡하고 있어 의미적으로 부적절합니다. 원문이 전달하고자 하는 내용을 잘못 해석하고 있습니다.
+9. Understandability Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>0.6869909353109084</v>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>다음 문장에서 제공된 정보에 따르면, 2024학년도 정시 신입생을 지원할 수 있는 경우 '수능 최저학력기준이 없음'이라고 명시하여, 수능에 응시하지 않아도 정시를 지원할 수 있다는 것을 의미합니다. 그러나 이는 일부 대학이나 과정에서 자격요건이나 기타 제한사항이 있을 수 있음을 유의해야 합니다. 지원하려는 대학의 구체적인 정보를 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 생성된 응답은 고등학교 졸업 후 10년이 경과한 경우 정시 지원이 불가능하다고 주장하고 있습니다. 그러나 원문에서는 고등학교 졸업 시기와 관계없이 정시 지원이 가능하다고 명시하고 있습니다. 따라서 사실과 완전히 반대되는 내용을 담고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 정시 지원이 불가능하다고 주장하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 낮습니다. 원문에서 다루고 있는 정시 지원 가능성에 대한 질문에 대해 잘못된 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에는 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 내용 불일치로 인해 전체적인 일관성이 떨어집니다. 주제는 명확하지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 1  
+   - 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 생성된 응답은 사실성, 일관성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3  
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>0.8068441012588874</v>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>제공된 문헌에 따르면, 고등학교를 졸업한 10년이 경과한 자는 정시 지원을 위한 요건을 충족하지 않습니다. 문헌에서는 다음과 같은 조건이 명시되어 있습니다:
+✠ 02. 지원자격
+   - 6년 과정농어촌 (읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수한 자로서, 중학교 입학일부터 고등학교 졸업일까지의 재학기간 동안 그들과 그의 부모가 농어촌(읍·면)지역에서 거주한 자
+이는 고등학교를 졸업한 후에도 정시 지원을 위한 요건은 명시되어 있지 않기 때문에, 10년이 경과한 자는 현재의 정시 지원 대상에서는 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 2024학년도 정시 일정에 대한 구체적인 사실을 잘못 해석하고 있습니다. 예를 들어, "학교생활기록부(학종)대체서류"와 같은 내용은 원문에 포함되어 있지 않으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문에서 제공하는 일정과 절차에 대한 정보가 아닌, 다른 주제에 대한 설명이 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시모집에 대한 정보를 다루고 있지만, 원문에서 다루고 있는 구체적인 일정과 절차에 대한 내용이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 각 주제 간의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 정확한 정보와 다르게 해석하고 있으며, 잘못된 정보가 포함되어 있습니다. 예를 들어, "학종 대체서류"와 같은 내용은 원문에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성 모두에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 적절하지 않은 부분이 많아 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 정보의 정확성과 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>0.8190569334161759</v>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>제공된 텍스트는 2024학년도 동의대학교 정시모집(지원자를 선발하기 위한 서류)에 관한 내용을 요강으로 제공하고 있습니다. 구체적인 정보는 텍스트만으로는 제한적이지만, 일반적인 내용을 요약해드리겠습니다.
+1. **2024학년도 정시모집**: 동의대학교는 그해에 신입생을 선발하기 위한 정시(수험 이후) 모집을 계획하고 있음을 알 수 있습니다.
+2. **학교생활기록부(학종)대체서류**: 신입생이 일반적인 학교생활기록부를 제출하는 대신, 동의대학교가 요구한 '학종 대체서류'라는 선택 서류를 만들어야 합니다. 이것은 일반적인 성과, 자기소개서나 면접에 대한 구체적인 정보로 학교생활의 내용을 제시하는 역할일 수 있습니다.
+3. **외국고등학교/검정고시 인정자**: 동의대학교가 해당 모집에서 외국 고등학교나 검정고시를 졸업한 경우, 이들을 지원할 때는 그들의 학력과 인정방식에 대해서도 구체적인 기준을 제공하고 있음을 알 수 있습니다.
+4. **모집단위**: 각자의 지원에는 특정한 '모집단위'를 부여하고 있어, 이는 동의대학교가 수험자들을 분산시키기 위한 구조로 보입니다.
+5. **성명, 생년월일, 합격지역**: 이는 신청인의 개인정보를 수집하고자 할 가능성이 있으며, 학종에서의 성과나 국제비교도 기본적인 요소일 것입니다.
+6. **활동명, 기관, 시기**: 신입생이 학교에서의 연구나 공개활동(여론조사, 문제해결활동과 같은)을 수행한 경험을 강조하는 '활동명'이 있습니다. 그 기관에서의 발행, 시기(연도월일), 구체적인 활동내용을 제공하는 부분이어야 합니다.
+요강은 정보가 제한적이고, 세부사항에서의 구체성도 거의 없기 때문에, 동의대학교의 정시모집을 위해 신청자가 어떤 종류의 활동이나 경험을 구체적으로 기재하고, 그에 대한 학교생활과의 연계를 어떻게 제시해야 하는지에 대한 명확한 가이드라인을 제공합니다.
+신입생들은 이러한 요강의 내용을 바탕으로, 동의대학교에서 정시모집에서 중요하게 여긴다고 인식하고 자신들의 경험과 성과를 이러한 기준을 만족시키는 방식으로 서류에 제공해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교의 정시 모집 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 정시 모집 절차에 대한 설명으로 대체하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 중요한 세부 사항이 누락되었습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 동의대학교의 구체적인 일정과 절차를 명시하고 있지만, 생성된 응답은 일반적인 정보로 대체되어 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 모집 일정에 대한 질문에 대한 답변으로 적절하지 않습니다. 일반적인 정시 모집 절차에 대한 설명은 있지만, 원본 텍스트의 핵심 내용과는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성에 비해 플루언시 점수가 높게 평가되었습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 낮아 전체적인 일관성은 떨어집니다. 일반적인 절차 설명이지만, 주제와의 연결이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 잘못된 정보로 대체되었습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하지 않습니다. 일반적인 정보는 제공되지만, 질문에 대한 적절한 답변이 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 내용의 적절성에 비해 이해 가능성 점수가 높게 평가되었습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>0.8204431324820499</v>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>제공된 텍스트는 2024학년도 동의대학교의 정시(수시로부터) 모집 일정에 관한 구체적인 세부 사항을 제공하지 않는 데이터뿐입니다. 그러나 일반적인 정시모집의 일정에 대한 개요를 드리겠습니다.
+동의대학교(이하 '도우대학교')가 2024학년도 정시모집을 진행할 경우, 일반적인 단계를 기준으로 다음과 같이 나타낼 수 있습니다.
+1. **모집공고**: 대학은 정시모집의 일정, 지원방법, 평가기준 등을 명확히 하는 광고나 문서를 제공합니다.
+2. **신청기한**: 일정에 대해선 지원자들이 모집요강(또는 인터넷을 통해)에서 지정된 마감일로 시작하여 제출해야 합니다.
+3. **기타 자격요건**: 대학은 수험자의 성적, 경력상담서(LSAT/GRE나 TOEFL/IELTS), 인터뷰가 필요한 경우에도 지정하는 기타 조건을 명시합니다.
+4. **접수**: 지원자들이 제출한 서류를 대학은 일정표에 따라 모집요강(인터넷)을 통해 검토합니다.
+5. **선발**: 지원자들의 성적, 서류, 기타 조건에 기반하여 대학은 정시모집을 통해 합격한 수험생을 선발합니다.
+6. **인터뷰/상담**: 일부 경우, 지원자들은 대학의 면접이나 경력상담서를 통해 진행하게 됩니다.
+7. **수행**: 합격선정과 동시에, 대학은 입학을 위한 이름변경서(Acceptance and Honor Certificate)를 보내고, 그 사항들을 명확히 합니다.
+8. **결정**: 대학은 모집요강에서의 선발과 동시에 수행하여, 지원자들이 그 사실을 안내받습니다.
+9. **건너뜀**: 합격되지 않은 경우에는 대학의 통보로부터 이어서, 수험을 재도전하거나 다른 대학에 진학하는 방안을 고려합니다.
+2024학년도의 구체적인 일정은 'doo-university'이 제공한 원문 내용(metadata)에서만 확인할 수 있습니다. 대부분의 학교들은 위의 단계를 고려하여 정시모집을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에 대한 사실을 왜곡하고 있습니다. 수능 미응시자는 지원이 불가능하다는 명확한 사실을 무시하고, 일반적인 대학의 정책에 대한 불확실한 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 수능 미응시자에 대한 지원 가능성에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명확히 언급하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 정시 모집 전형에 대한 질문에 대한 직접적인 답변을 제공하지 않고, 일반적인 대학 정책에 대한 언급으로 흐트러져 있습니다. 원본 텍스트의 핵심 주제와는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하고, 원본 텍스트와의 연결이 약합니다. 수능 미응시자에 대한 지원 가능성에 대한 명확한 답변이 없기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 수능 미응시자가 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 이는 명백한 부정확성입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 내용을 제대로 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 수능 미응시자에 대한 지원 가능성에 대한 잘못된 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 일관성이 부족하여 전체적인 이해가 어렵습니다. 원본 텍스트의 핵심 내용을 반영하지 않기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>0.810325850858834</v>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>제공된 문장에는 구체적인 내용이 없기 때문에 동의대학교의 2024학년도 정시모집 전형과 수능 미응시자를 지원하는 방법에 대한 구체적인 정보를 제공할 수는 없습니다.
+그러나 일반적으로 일부 대학은 성취도가 미약한 학생들을 위해 정시모집에서 수능 미응시자를 지원하는 '프리-ENTRY'나 '일부 전형', '교육이 Nasıl?'과 같은 다양한 제도를 마련해 두고 있을 수 있습니다.
+동의대학교가 정보를 포함하는 구체적인 문서나 자세한 내용을 제공해 주시면, 그에 맞는 정확한 답변을 드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 구체적인 정보를 제공하지 않고, 모집요강 정보가 명시되지 않았다고 언급하고 있습니다. 그러나 원문에서는 전자공학과의 충원 합격이 36명까지 이루어졌다고 명확히 언급하고 있어, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있으며, 전자공학과의 충원 합격에 대한 구체적인 내용을 누락하고 있습니다. 이는 원문과의 일관성을 저해합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 전자공학과의 충원 합격에 대한 질문에 대한 직접적인 답변을 제공하지 않고, 모집요강 정보에 대한 언급으로 흐르고 있습니다. 따라서 관련성은 있지만, 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있으나, 원문과의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 원문에서 요구하는 정보와는 다른 방향으로 흐르고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 구체적인 사실을 반영하지 않고 있으며, 전자공학과의 충원 합격에 대한 정확한 정보를 누락하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 부족함이 있으며, 원문과의 관계가 약해 다차원적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문에서 요구하는 정보와는 다소 동떨어져 있어 의미의 적절성에서 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 관련성이 떨어져서 질문에 대한 명확한 답변이 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>0.6545708390659345</v>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>제공된 문장에는 전년도의 전자공학과(소프트웨어융합학과)를 위한 모집요강 정보가 명시되지 않아, 제공된 세부 사항에서 전자공학과의 충원을 기간이나 마감일로 구체적으로 정확히 식별할 수는 없습니다. 제공된 문서에서 전자공학과의 모집요강이나 관련 기한을 확인하려면, 해당 구절이나 문서를 다시 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 입학관리팀의 전화번호가 명시되어 있다고 주장하는 원문과 상반된 내용을 담고 있습니다. 원문에 명시된 전화번호를 부정하고 있으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 전화번호가 명시되어 있다고 했지만, 생성된 응답은 전화번호가 없다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원문과 관련이 있지만, 전화번호가 없다는 잘못된 정보를 제공하고 있어 주제와의 관련성이 낮습니다. 원문에서 제공된 정보에 대한 적절한 응답이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 문장 끝의 구두점이 일본어 스타일로 되어 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 전화번호가 없다는 주장은 원문과의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에 명시된 전화번호 정보를 완전히 잘못 전달하고 있습니다. 이는 사실과 전혀 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 이는 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>0.7743133580690861</v>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 동의대학교 입학처 전화번호가 명시되어 있지 않습니다。이 정보를 찾기 위해서는 동의대학교 홈페이지나 입학센터에서 전화번호가 제공하거나 문서를 다시 확인해야 합니다。</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 연락 시도 횟수를 2회로 잘못 언급하고 있으며, 원본 텍스트에서는 3회 시도해야 한다고 명시되어 있습니다. 또한, "등록 포기자"로 간주되는 조건에 대한 설명이 원본과 다르게 해석되고 있어 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 많습니다. 특히, 전화 연락 시도 횟수와 관련된 내용이 상충하며, 원본의 의미를 왜곡하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 다루고 있지만, 추가적인 정보가 포함되어 있어 약간의 주제에서 벗어난 부분이 있습니다. 그러나 전반적으로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 메시지를 전달하지 못하고 있습니다. 특히, 추가된 정보가 원본의 주제와 잘 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 다르게 해석된 부분이 많아 정확성이 낮습니다. 전화 연락 시도 횟수와 관련된 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 떨어집니다. 관련성은 높지만, 다른 요소들이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 일부 내용이 왜곡되어 있어 의미적으로 완벽하게 적절하지는 않습니다. 특히, 전화 연락 시도 횟수와 관련된 부분이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 약간의 혼란을 줄 수 있습니다. 그러나 대체로 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>0.9203544307492358</v>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해서는, 전화 연락을 2회 시도하여도 통화가 되지 않으면 그들은 "전화 연락 두절"로 간주하고, 합격이 인정되었음에도 등록을 포기한다고 간주합니다.
+그들은 2024년 2월 15일(목)부터 2월 20일(화)까지의 충원합격자 발표기간 내에 전화로 개별 확인을 받지 못하면, 우리대학은 그들을 "등록 포기자"로 간주합니다.
+이를 방지하기 위해서는 충원합격자들에게도, 2024년 1월 2일(화)부터의 수시모집 등록포기로 인한 결원을 고려하여, 이를 정시모집에서 합격자 선발과 동일한 방식으로 보고해야 합니다.
+전화 연락을 통해 등록 의사를 명확하게 전달한 경우, 이는 타대학에서 받은 충원합격 통보를 바로 우리대학에도 전달해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 제출해야 할 서류에 대한 정보를 포함하고 있지만, 일부 세부사항이 누락되거나 잘못 해석된 부분이 있습니다. 예를 들어, 제출기한이 잘못 기재되어 있습니다. 원문에서는 2024년 1월 12일이 기한으로 명시되어 있지만, 생성된 응답에서는 12월 12일로 잘못 기재되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 제출기한과 같은 중요한 세부사항에서 불일치가 발생합니다. 또한, 서류의 요구사항에 대한 설명이 원문과 다르게 해석되어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 요구하는 서류와 관련된 정보를 제공하고 있지만, 일부 내용이 원문과 다르게 해석되어 관련성이 약간 떨어집니다. 그러나 전반적으로 주제와 관련된 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 서류에 대한 설명이 명확하게 이어집니다. 그러나 일부 세부사항에서의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 요구하는 서류에 대한 정보를 제공하지만, 제출기한과 같은 중요한 세부사항에서 오류가 발생하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 주제에 적합한 내용을 포함하고 있습니다. 그러나 일부 세부사항에서의 오류로 인해 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 다만, 일부 복잡한 문장 구조로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>0.8575658916726484</v>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 신입생을 위한 '농어촌(읍·면)지역에 소재하는 중·고등학교'로의 지원자격을 확인하기 위해서는 다음과 같은 서류를 제출해야 합니다:
+1. **가족관계증명서 1부**: 지원자의 가족관계를 확인하기 위한 서류로, 이는 일반적으로 주민등록을 제출하는 데 사용됩니다.
+   - 지원자의 가정에서 1부 (필요한 경우, 부모도)
+2. **주민등록초본 각 1부**: 학생과 부모(이혼의 경우 사망자나 다른 가정에서 제공)의 주민등록을 인증하는 서류로, 각각 1부를 요구합니다.
+   - 지원자 부부 1부
+   - 지원자 부모 1부 (이혼의 경우)
+   - 지원자 부모 모두 1부 (사망한 경우, 다른 가정에서 제공해야 합니다)
+3. **중학교 학교생활기록부 1부**: 지원자의 중학교 과정을 보여주는 학업 기록서로, 이를 제출하기 위해 한 부가 필요합니다.
+4. **고등학교 학교생활기록부 1부**: 지원자의 고등학교(중·고)에서의 성과를 보여주는 학업 기록서로, 이전에도 제공하지 않은 경우가 아니면 한 부가 필요합니다.
+   - (인터넷을 통해 제공하는 경우를 제외) 학교에서의 1부
+이들 서류는 동일한 지역(읍·면)에 소재한 중학교와 고등학교에서 수행하거나, 인터넷을 통해 제공되는 경우를 기준으로 동일한 지역의 다른 중·고등학교에서도 모두가 같은 요구사항을 만족하면 제출이 가능합니다.
+주의: '40페이지 Ⅵ. 학생부교과성적 반영방법'에서 구체적인 세부사항을 확인하여, 수능 미응시자나 '학생부교과전형(농어촌)'의 경우에도 이 기준에 따라 제출서류가 정해져 있을 수 있습니다.
+모집요강과 관련하여, (우)부산광역시 부산진구 동의대학교 입학관리팀에서는 제출기한은 2024년 1월 3일(수)부터 12월 12일(금) 오전 17:00까지로, 위의 서류를 이 시간에 도착하여 제출해야 합니다.
+모든 서류는 신뢰성을 확보하기 위해, 공공기관(교육기관), 무인민원발급기, 인터넷 (정부24)에서 제출한다고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에서 요구하는 서류와 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 예를 들어, '가족관계증명서'와 '부모의 기본증명서'는 원본 텍스트에 언급되지 않았습니다. 또한, '지원자 및 부모(3부)의 주민등록초본'이라는 내용도 원본과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본에서 요구하는 서류 목록과 생성된 응답의 서류 목록이 서로 다르며, 서로 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보가 정확하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름이 원본과는 다르게 전개됩니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 부분이 많습니다. 일부 내용은 관련이 있지만, 전체적으로는 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>0.928319898895576</v>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>농어촌학생전형을 위한 지원에서는 다음 서류를 12년 과정의 경우 제출해야 합니다:
+1. 가족관계증명서 1부
+2. 지원자 및 부모(3부)의 주민등록초본 각 1부
+3. 중학교 학교생활기록부 1부
+4. (부모가 사망한 경우) 사망한 부 또는 모의 기본증명서 1부(기본증명서에 '사망'이 명시되어 있지 않은 경우)
+5. (부모가 이혼한 경우) 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부
+6. 고등학교 학교생활기록부 1부（학생부 온라인에서 제공하지 않는 경우）
+이 서류들은 중·고등학교의 전역과정을 통해 거주한 자신과 부모의 가족관계를 확인하는 데에 사용됩니다. 이 서류들은 지원자의 학생부교과성적을 전형요소로 100% 반영하기 위해 제출됩니다.</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 일반적인 정보에 대한 언급이 포함되어 있습니다. 그러나, 주어진 정보에 대한 명확한 답변이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 응답은 주어진 정보와 일부분 일치하지만, 기회균등 전형이 존재하지 않는다는 명확한 사실을 간과하고 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 응답은 주어진 질문과 관련된 내용을 다루고 있지만, 기회균등 전형의 존재 여부에 대한 명확한 답변이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 주제를 잘 전달하고 있습니다. 그러나 기회균등 전형의 존재 여부에 대한 명확한 결론이 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않으며, 일반적인 정보에 대한 언급이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이고 있으나, 기회균등 전형의 존재 여부에 대한 명확한 답변이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주어진 문맥에 적절하게 의미를 전달하고 있으나, 기회균등 전형의 존재 여부에 대한 명확한 언급이 부족하여 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 기회균등 전형의 존재 여부에 대한 명확한 결론이 부족하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>0.6519026750287861</v>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>제공된 문장과 주어진 정보에는 2024학년도 정시모집의 구체적인 세부사항이나 '저소득기회균등전형'과 같은 구체적인 제도에 대한 정보가 명시되어 있지 않습니다. 그러나, 일반적으로 학교나 대학은 소득이나 사회경제적 상황에서의 기회균등성을 고려하여 모집요강을 구성할 수 있지만, 정보가 제공된 문장에서는 이를 명시하지 않습니다.
+그러므로, 주어진 내용에 기초하여 확인할 수 있는 대답은 '아니오'이나 '정보가 제공되지 않음'일 것입니다. 학교나 모집요강에서의 구체적인 세부사항을 확인해야 정확한 답이 도출됩니다.</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 없다는 원문 내용을 왜곡하고 있으며, 잘못된 수학적 계산을 포함하고 있습니다. 원문에서 요구하는 정보와는 전혀 다른 내용을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 2.5등급을 고려하여 다른 계산을 제시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문 질문에 대한 직접적인 답변이 아니며, 관련 없는 수학적 계산을 포함하고 있습니다. 원문에서 요구하는 정보와는 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 표현이 어색하고 명확하지 않은 부분이 있습니다. 특히 "그는 444으로 정확화됩니다"라는 표현이 부자연스럽습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하며, 원문과의 연결이 약합니다. 수학적 계산이 원문 질문과 어떻게 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 사실적으로 맞지 않으며, 잘못된 계산을 포함하고 있습니다. 원문에서 요구하는 정보와는 전혀 다른 내용을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 문맥에 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 일부 이해할 수 있는 부분이 있지만, 전반적으로 혼란스럽고 명확하지 않은 표현이 많아 이해하기 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>0.5408488450765884</v>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>아니요, 그대로 2.5등급을 고려하면 상황을 진단합니다. 수학 영역에서의 최종전형성적 산출은 정량화가 용이해 소수점 세기로 계산됩니다. 2.5를 3자리로 반올림하면, 그는 444으로 정확화됩니다 (108 * 0.1 = 10.8, 이를 3자리로 반올림해서 444). 따라서 2.5등급을 고려하면 전형성적 산출은 444이 됩니다.</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 발표 기간을 언급하고 있지만, 1차 및 2차 발표 날짜를 생략하고 있으며, 3차 발표가 개별 전화 통보로 진행된다는 중요한 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 3차 발표 이후의 날짜를 언급하고 있지만, 전체 발표 과정에 대한 정보가 부족하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 발표 기간에 대한 정보를 제공하므로 관련성이 있지만, 전체 발표 과정에 대한 정보가 부족하여 완전한 관련성을 갖추지 못합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 잘 작성되었습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결되어 있지만, 전체 발표 과정에 대한 정보가 부족하여 완전한 일관성을 갖추지 못합니다.
+6. Accuracy Score (1-5): 3
+   - 발표 기간에 대한 정보는 정확하지만, 전체 발표 과정에 대한 중요한 세부사항이 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이며, 특히 정보의 누락으로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하지만, 전체 발표 과정에 대한 정보가 부족하여 완전한 적절성을 갖추지 못합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 문장으로 잘 전달되었습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>0.8852688898676699</v>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자의 발표는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과에 대한 정보가 부족하다고 언급하고 있지만, 원본 텍스트에는 e-비즈니스학과의 평균 점수와 합격 가능성에 대한 구체적인 정보가 포함되어 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실을 정확히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과에 대한 정보가 없다고 주장하지만, 원본 텍스트는 e-비즈니스학과의 평균 점수와 합격 가능성에 대한 정보를 제공합니다. 이로 인해 두 텍스트 간의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하지 않고, ICT융합공과대학에 대한 정보로 전환합니다. 이는 질문의 핵심 주제와 관련이 있지만, 원본 텍스트의 주요 내용과는 다소 동떨어져 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 원본 텍스트와의 연결이 약해 일관된 흐름이 부족합니다. 특히, e-비즈니스학과와 ICT융합공과대학 간의 전환이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, e-비즈니스학과에 대한 구체적인 정보를 제공하지 않기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문의 맥락과 관련이 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장은 복잡하게 구성되어 있어 명확하게 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>0.7231427920546608</v>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 정시 전형 성적 4.6이면 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">제공된 문서에는 e비즈니스학과나 다른 구체적인 정보를 기재하지 않아, 4.6의 성적이 ICT융합공과대학(수학영역)에서는 어떤 규칙을 따르고 있는지나 동점자를 다루는 방식에 대한 구체적인 정보가 명확하게 제공되어 있지 않아서 그러한 의문을 해결할 수는 없습니다.
+e비즈니스학과나 ICT융합공과대학에서의 정시 전형은 성적, 동점자 기준, 모집단위별로 다를 수 있습니다.
+4.6의 경우가 합격선에서 동점자인지, ICT융합공과대학이나 기타 모집단위로부터의 특정 기준을 따를 수 있는 경우, 그에 맞는 규칙에 따라 차차년도 모집이나 추가합격의 여지가 있을 수 있습니다.
+그러한 구체적인 정보를 확인하기 위해서는 대학이나 모집단위의 합격 가이드라인을 직접 문서화된 자료, 대학 추천전문상담원과 상담하는 것이 필요합니다.
+</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 모집요강에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 e비즈니스학과의 평균 등급과 관련된 정보는 누락되어 있습니다. 또한, 5.3이라는 등급에 대한 구체적인 판단 기준이 없다는 점은 사실이지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하는 정보를 제공하지만, e비즈니스학과의 평균 등급에 대한 언급이 없고, 5.3이라는 등급에 대한 판단 기준이 명확하지 않다는 점에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교의 정시 모집과 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 주제인 e비즈니스학과의 합격 가능성에 대한 정보가 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실을 충분히 반영하지 못하고 있습니다. 특히, e비즈니스학과의 평균 등급에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부 정보는 유용하지만 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 동의대학교의 정시 모집에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>0.6029007914657044</v>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>동의대학교 e비즈니스학과 정시 등급 5.3이면 최초합 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>제공된 동의대학교 Dong-eui University에서의 정시 모집요강에서는, 구체적인 5.3이라는 등급을 지원자의 합격여부를 판단하기 위한 세부 사항은 명시되어 있지 않습니다.
+그러나 다음과 같은 정보가 제공됩니다:
+1. 경기실적증명서의 3년간(2021년 3월~2023년 12월)에만 제출해야 한다는 것.
+2. 등위가 대회별 인정 등위 이내에 포함되지 않으면 자격미달로 처리될 수 있음.
+3. 동점자(성취도가 비슷한 경우)는 다음과 같은 기준에 따라 평가됩니다:
+   - 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목의 평균 성적.
+   - 영어교과 전 과목의 평균 성적.
+   - 국어교과 전 과목의 평균 성적.
+   - 진로선택과목에서 A: 1등급, B: 3등급, C: 5등급을 기준으로 성취도.
+   - 동점자의 경우는 9등급으로 평가하고, 소수점 셋째 자리에서 절사를 시행합니다.
+   - 동점자의 인원을 모두 합격으로 처리하고, 그 수만큼 모집인원을 차차년도에서 감축.
+5.3이라는 정시 등급은 구체적인 기준과 연계되어 있지 않아, 합격여부를 판단하기 위해서는 다음 요소들을 고려해야 합니다:
+   - 경기실적증명서의 성적.
+   - 국어, 수학, 영어, 한국사, 사회(역사/도덕), 과학교과 전 과목에서의 평균 성적.
+   - 진로선택과목의 성취도.
+5.3이라는 정시 등급을 가지고 있다고 해서 그에 기반하여 합격 가능성을 판단할 수 있는 명확한 방법은 아니라, 전체 자료를 종합적으로 고려해야 합니다.
+동의대학교에서 정시 모집을 신청하는 경우, 제공된 요건과 기준에 부합한 전체 자료를 사용하여 지원을 강화하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e비즈니스학과의 충원합격 가능성에 대한 정보가 부족하다고 언급하고 있지만, 원문에서는 예비 38번의 경우 합격 가능성이 낮다고 명확히 언급하고 있습니다. 이 점에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충하는 내용을 포함하고 있습니다. 원문은 예비 38번의 합격 가능성이 낮다고 명시했으나, 생성된 응답은 38번으로도 합격 가능성이 있다고 시사하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제시한 핵심 정보인 예비 38번의 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 정보가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성이 떨어집니다. 예비 38번의 합격 가능성에 대한 원문의 주장을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 다차원적 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 맥락과 관련된 내용을 다루고 있지만, 원문의 핵심 메시지를 제대로 전달하지 못하고 있어 의미적으로 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보의 분산으로 인해 일부 부분에서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>0.79357067380626</v>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비38번 이정도면 예비합격 가능할지 궁금합니다.</t>
+        </is>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 구체적인 성적요건이나 전형요소의 세부 정보가 명시되어 있지 않아, e비즈니스학과 38(이정도)을 기본으로 하여 합격할 수 있는 가능성을 판단하기에는 어려우게 만들고 있습니다.
+다음은 제공된 정보를 바탕으로 이해하는 방법일 수 있습니다:
+1. **모집단위**: e비즈니스학과의 모집인원은 10명으로 나타났습니다.
+2. **지원자격**: 고교를 졸업(예정)한 후에도 e비즈니스학과의 합격을 기대할 수 있는 요건은 명시되어 있지 않습니다.
+3. **전형요소 반영비율**: e비즈니스학과를 포함한 모든 수능(일반학생전형)에서는 100%의 반영이 가정됩니다. 이는 모든 요소, 즉 수능성적을 모든 학과에 전형에 고려하도록 의미합니다.
+4. **제출서류**: e비즈니스학과를 지원하는 경우, 일반적인 구체적인 요건은 명시되어 있지 않습니다.
+이러한 정보를 바탕으로, e비즈니스학과에서는 수능성적(38번)만으로도 모집인원의 100%를 차지하여 합격할 가능성이 있음을 시사합니다.
+그러나 정확한 평가는 다음과 같은 제약에서 도움이 됩니다:
+- **모든 전형요소**: e비즈니스학과만의 성적이 아니라, 기타 지원자들이 보유한 교과과정, 수상경험, 동아리 참여 등을 모두 고려하는 전형에서의 성적도 중요합니다.
+- **기준/선발**: e비즈니스학과를 지원한다고 해서 모든 경우에 결정적인 역할을 하는 성적이나, 기타 학과들의 요구사항도 존재할 수 있음.
+- **전반적인 합격선**: e비즈니스학과에서는 38이라는 성적만으로는 모집단위의 요구를 충족하지 못할 수도 있음.
+e비즈니스학과에서 e정보가 부족한 만큼, 다른 전형요소를 강화하거나 지원자의 기타 성과를 제시하는 것이 합격에 도움이 될 수 있음을 유의해야 합니다. Dong-eui University가 공개한 모든 세부정보나 선발기준은 제공되지 않았기 때문에, e비즈니스학과를 위해 대표학생이나 관리자와의 상담을 고려하는 것이 유용할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, 지원자의 구체적인 성적(3.44)에 대한 언급이 부족하고, 동점자 처리 기준에 대한 일반적인 정보로 대체하고 있습니다. 따라서 일부 사실이 누락되었고, 정확한 정보 전달이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교의 간호학과에 대한 정보를 제공하지만, 원본 텍스트의 내용과 일치하지 않는 부분이 있습니다. 특히, 지원자의 성적에 대한 직접적인 언급이 없고, 동점자 처리 기준에 대한 설명이 추가되어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용(3.44 성적에 대한 합격 가능성)에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 동점자 처리 기준에 대한 설명이 잘 정리되어 있습니다. 그러나 원본 텍스트와의 연결이 약해질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동점자 처리 기준에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 사실(예: 평균 등급, 합격 가능성)에 대한 정확한 반영이 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있지만, 원본 텍스트의 특정 세부사항을 놓치고 있어 일부 의미가 약해질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 길어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>0.7165059111601758</v>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>간호학과 동의대식 정시 성적 3.44인데 마지막으로 문 닫고 들어 올 가능성도 없나요?</t>
+        </is>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>제공된 정보에는 간호학과 동의대식이나 구체적인 지원자의 평가 세부사항(예: 3.44)이 명시되어 있지 않습니다. 그러나 동점자 처리기준에 대한 일반적인 정보를 바탕으로, 귀하가 지원한 모집단위의 합계점수나 다른 영역(수학/국어/영어)에서 상위자인지를 고려할 경우, 여전히 문을 들어 올 가능성은 존재합니다.
+정시 모집요강의 동점자 기준에서는:
+1. 수능영역(국어, 수학, 영어)의 합계점수가 상위인 경우, 해당 모집단위를 선택하여 합계점수에 기반한 정렬을 시행합니다.
+2. 영어의 경우(등급에 따라), 상위인 경우도 동일하게 모집단위를 선택합니다.
+3. 수능 실기/실적의 경우, 해당 영역에서 상위인 경우도 동일하게 모집단위를 선택합니다. '0점'을 처리한다면 이는 그 영역의 미응시자로 분류됩니다.
+4. 간호학과 수능탐구(2개 과목)에서도, 상위인 1개 과목의 백분위를 기준으로 모집단위가 선택될 수 있습니다.
+귀하의 경우, 합계점수나 영역별 성과를 고려하여 동일한 기준에 부합하는지 확인해보시는 것이 중요합니다. 정확한 평가나 모집단위의 구체적인 동의를 제공할 수 있는 자료가 부족하여, 이를 신중히 해석해야 합니다.
+간단히 요약하면, 동의대학교나 모집단위에서 문을 들어 올 가능성은 존재할 수 있지만, 정보를 객관적으로 평가하기 위해서는 구체적인 자료나 요강을 제공하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지 않고, 2.52의 성적이 합격 가능성이 높다는 원문 내용을 부정하는 방향으로 해석하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 간호학과의 평균 등급과 합격 가능성에 대한 내용을 일관되게 반영하지 않고, 오히려 반대되는 주장을 하고 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대한 답변을 시도하고 있지만, 주제와 관련된 정보가 부족하고, 동점자 기준에 대한 설명이 주를 이루고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 주제와 관련된 논리적 흐름이 부족하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상충되는 내용을 포함하고 있으며, 간호학과의 합격 가능성에 대한 잘못된 해석을 하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락에서 벗어난 해석이 포함되어 있어 완전한 적절성을 보이지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 이해할 수 있는 내용이지만, 주제와 관련된 정보가 부족하여 전체적인 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>0.7399243741856893</v>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>간호학과 정시 성적 2.52 추가 합격으로도 합격 안되겠죠?</t>
+        </is>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 간호학과나 다른 특정 전공의 세부 정보가 명시되어 있지 않기 때문에, 2.52(합격점)로도 성공하지 못한다고 단정할 수는 없습니다.
+그러나 동점자의 기준과 모집인원에 대해서는 이해할 수 있습니다:
+- 일반학생전형 (수능)은 국어, 수학, 영어의 합계점수에 기반하여 동점자를 정의합니다.
+- 2인문사회과학대학, 상경대학, ICT융합공과대학 등을 모집한 전형에서는 수능영역(국어/수학)의 백분위로 동점자를 정의하고 있습니다.
+- 일반학생전형 (실기)에서는 '0점'을 미실시한 수능영역에 대해 동점자를 처리합니다.
+간호학과의 경우, 성적이나 모집인원에 대한 구체적인 정보가 필요하여 동점자를 어떻게 해석하고, 합격의 기준을 이해할 수 있습니다.
+성적에 대한 구체적인 정보나 모집학과의 동일한 기준을 제공하면, 더 명확한 해석과 조언을 드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 간호학과의 정시 모집요강이나 합격 기준에 대한 구체적인 정보를 제공하지 않으며, 3.7 GPA에 대한 평가를 명확히 하지 않고 있습니다. 이는 원문에서 제시된 간호학과의 평균 등급과 비교할 때, 합격 가능성이 낮다는 사실을 간과하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문에서 제시된 정보와 일치하지 않으며, GPA가 3.7인 경우의 합격 가능성에 대한 명확한 판단을 피하고 있습니다. 이는 원문에서 제시된 간호학과의 평균 등급보다 낮은 성적이라는 사실과 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 간호학과의 정시 모집과 관련된 일반적인 지침을 제공하고 있으나, 원문에서 제시된 구체적인 정보와 직접적으로 연결되지 않는 부분이 있습니다. 그러나 전반적으로 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 이해하는 데 시간이 걸릴 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 요소를 나열하고 있으나, 전체적으로 일관된 흐름이 부족합니다. 각 항목 간의 연결이 명확하지 않아 다소 단편적으로 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제시된 간호학과의 평균 등급과 비교할 때, 3.7 GPA의 합격 가능성에 대한 정확한 정보를 제공하지 않고 있습니다. 이는 원문과의 사실적 일치가 부족함을 나타냅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 부족함을 보이며, 여러 차원에서 낮은 점수를 기록하고 있습니다. 관련성은 다소 높지만, 다른 차원에서의 부족함이 전체 품질을 저하시킵니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있으나, 원문에서 제시된 정보와의 일치성이 떨어져 의미 전달이 부족합니다. 특히, 합격 가능성에 대한 명확한 판단이 결여되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 복잡한 문장 구조로 인해 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>0.748891275837131</v>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>간호학과 정시 성적이 3.7인데 정시 전형 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 구체적인 간호학과의 정시 모집요강이나 합격기준이 명확하게 언급되지 않아, 3.7 GPA를 바탕으로 한 정시 모집에서의 합격을 평가할 수는 없습니다.
+그러나 여기 일반적인 지침과 고려해보세요:
+1. **합격선**: 간호학과의 정시모집에서는 GPA가 중요한 요소이지만, 대부분의 대학들은 다음을 포함하고 있습니다:
+   - 수학과 영어/과학에서의 성적.
+   - 면접, 기말시험(CAT), 인터뷰 결과.
+   - 공개모집이나 선호모집을 고려하는 경우, 학교의 구성요소에도 중점을 둡니다.
+2. **동점자 관리**: 문서에서는 '동점자'라는 개념이 명시되어 있으나, 구체적인 내용은 제공되지 않았습니다. 일반적으로 '동점자'는 GPA가 같아서도 선택을 기준으로 차등 우선시하는 경우를 의미합니다.
+3. **전형요소**: 문서에서는 '나'군(간호학과)이 GPA가 상위인 사람들을 언급하고 있지만, 구체적인 전형요소를 제공하지 않아서는 합격여부를 정확히 판단할 수 없습니다.
+4. **신청기한과 자료**: GPA가 3.7인 경우, 모집요강에서의 제출 시점이나 필수 문서(학업일정, 면접계획 등)를 미리 확인하는 것이 중요합니다.
+5. **대학의 구체적인 지침**: GPA만 보고 모집에 나서기보다는, 신청을 위한 간호학과의 특정 대학이나 교육부(또는 지역)의 요구사항을 조사하고, GPA를 보다 종합적인 전형성과 결합시키는 것이 중요합니다.
+신청에서 모델로 나아가기 위해서는, GPA를 고려하면서도 전형의 구성요소(수학/영어, 인터뷰)를 꼼꼼히 준비하는 것이 중요합니다. 대학에서 제공한 모집요강과 GPA가 그들의 선정기준을 넘어서는지, 면접/인터뷰를 우수하게 함으로써 합격에 도전해보세요.</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 간호학과의 합격 가능성에 대한 정보를 제공하는 대신, 주어진 성적을 해석하기 어렵다고 주장하고 있습니다. 이는 원본 텍스트에서 제시된 정보와 상충하며, 간호학과의 평균 등급보다 높은 성적을 가진 경우 합격 가능성이 높다는 사실을 무시하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 주장을 반박하는 내용으로, 간호학과의 합격 가능성에 대한 정보와 일치하지 않습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 간호학과의 합격 가능성에 대한 질문에 대한 답변을 시도하지만, 주어진 성적에 대한 해석을 중심으로 하여 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 가지 정보를 나열하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 간호학과의 합격 가능성에 대한 명확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 주어진 성적에 대한 해석을 시도하지만, 원본 텍스트의 의미와 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3  
+   - 생성된 응답은 다소 복잡한 문장 구조로 인해 이해하기 어려운 부분이 있으며, 명확한 결론을 제시하지 않고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>0.7547925874228403</v>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>간호학과 정시 성적이 2.58인데 정시 전형 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 간호학과나 다른 구체적인 전형요소의 정보가 명시하지 않아, 2.58(합격점)이라고 주어진 성적을 해석하기에는 불가능합니다.
+문서를 바탕으로 정시 전형의 동점자 처리기준과 각 모집단위나 학과에 대한 요구사항을 이해하려면, 다음 세부 정보가 필요합니다:
+1. 간호학과의 2024학년도 모집단위나 전형에서의 합격선이나 기준점수.
+2. 정시 전형요소(수능, 실기/실적)에 대한 동점자 처리기준.
+3. 간호학과의 성적이나 모든 전형요소를 합산한 종합적인 수학능력을 보유하고 있는지 (정확한 결과에 대해서는 성적이나 모든 전형요소의 세부 내역).
+2.58의 수준을 보유하고 있다면, 정확한 기준과 동점자 처리방식에 따라 간호학과를 합격할 가능성을 판단하는 데 도움이 될 수 있습니다.
+현재 정보로는 그 여부를 구체적으로 판단할 수 없습니다. 간호학과의 합격기준을 문서나 대학에서 제공받은 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용을 왜곡하고 있으며, 예비번호 7번에 대한 정보가 전혀 제공되지 않고 있습니다. 원본 텍스트는 예비번호 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 이를 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 예비번호 7번의 합격 가능성이 낮다고 명확히 언급하고 있으나, 생성된 응답은 그와 반대되는 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 관련이 적고, 예비번호 7번에 대한 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용을 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 적절성 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와의 연결성이 부족하여 일관된 논리적 흐름이 없습니다. 원본 텍스트의 주제를 벗어나고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 예비번호 7번에 대한 합격 가능성에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 원본 텍스트와의 관련성이 부족하여 질문에 대한 명확한 답변을 제공하지 못하고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>0.7672570972025461</v>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>제공된 텍스트에는 '2024학년도 정시 모집요강(원본 배포용 제거).pdf'라는 문서의 내용이 명시되어 있지만, 그 구체적인 세부사항은 전혀 나타나지 않아 게임공학과 예비번호 7번에 대한 정보를 제공하기는 어렵습니다.
+문서의 내용을 확인해주시면, 꼭 필요한 세부사항을 드릴 수 있도록 하겠습니다.</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 수학 영역의 성적을 계산하는 방식에 대한 설명을 포함하고 있지만, 원본 텍스트에서 제공된 정보와는 관련이 적습니다. 원본 텍스트는 게임공학과의 평균 성적과 합격 가능성에 대한 정보를 제공하고 있으며, 생성된 응답은 이를 무시하고 수학 성적에 대한 계산을 중심으로 하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 원본 텍스트는 정시 등급이 4.16일 경우의 합격 가능성에 대해 언급하고 있지만, 생성된 응답은 수학 성적 계산에만 집중하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 게임공학과의 평균 성적과 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 수학 성적 계산에 대한 내용으로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 수학 성적 계산에 대한 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적으로는 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 수학 성적 계산에 대한 내용을 포함하고 있지만, 원본 텍스트의 정보와는 관련이 없으며, 계산 결과도 원본 텍스트의 맥락과 맞지 않습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성, 정확성 모두 낮은 점수를 기록하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제를 벗어난 내용으로 인해 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3  
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>0.7021998831710775</v>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>게임공학과 정시 성적이 4.16정도인데 정시로 넣으면 추합몇정도 될까요?</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>주어진 수학 영역의 산출방법을 바탕으로, 4.16(이하 A)를 가정한 전체 성적을 계산해 보겠습니다.
+국어: 104\n수학: 108 + (108 * 0.1) = 108 * 1.1 = 118.8\n영어: A\n과탐(물리Ⅰ+화학Ⅰ): 47 + 59 = 106\n
+전체 성적 (소수점 셋째자리에서 반올림) - A는 unknown: 104 + 118.8 + 106 = 328.8\n
+전체 성적 (소수점 셋째자리에서 반올림) = 328.8 = 328.80\n
+A(영어)를 포함하면, 전체 성적은 다음과 같을 것입니다:\n328.8 + A\n
+4.16의 정답(소수점 셋째자리에서 반올림)은 이미 전체 성적보다 낮기 때문에, A는 328.80 - 4.16 = 324.64를 의미합니다.\n
+영어(A) 테스트 점수로 소수점 셋째자리에서 반올림하면:\n324.64 -&gt; 324.6\n
+따라서, A = 324.6이고 게임공학과를 정시로 지원할 경우 전체 성적은 대략 324.6입니다.\n
+\n단, 이는 제가 수학에서만 구체적인 계산을 했기 때문에, 정확한 전체 성적은 A(영어)의 정확한 값이 필요합니다.\n</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 수치(영어 등급 평균 2.88, 수능 4개 영역 등급 평균 3.88)에 대한 언급이 부족합니다. 또한, "3.75의 가시성"이라는 표현이 원본의 맥락과 다소 어색하게 느껴집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, "가시성"이라는 용어 사용이 원본의 맥락과 일치하지 않으며, 전반적으로 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 경영정보학과의 최초등록자와 관련된 여러 요인을 고려하고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보(합격 가능성)에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편이지만, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 설명하고 있습니다. 그러나 "가시성"이라는 용어 사용이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 구체적인 수치와 정보를 정확히 반영하지 않으며, "가시성"이라는 표현이 원본의 의미를 왜곡할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답이 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - "가시성"이라는 표현이 원본의 의미와 다소 어긋나며, 전체적인 맥락에서 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬운 편이지만, 특정 용어 사용으로 인해 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>0.7705135201820525</v>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>제공된 문장에는 구체적인 정보가 부족하여 명확한 답을 내기 어려우지만, 일반적인 귀ggi를 제공할 수 있습니다.
+경영정보학과에서 3.75(가시성이라고 가정)의 성적을 받은 사람이 최초등록자로 진학할 수 있는지에 대해서는, 다음 요인들을 고려하면 결정됩니다.
+1. **성과**: 3.75의 가시성은 A+부터 D까지의 평가로서, 대학이나 전공에 대한 강점을 보여주고 있는 경우, 다른 합격자들과도 차별화된 기회를 제공할 수 있습니다.
+2. **전공의 요구사항**: 경영정보학에서는 이론적인 지식과 결합하여 기업을 위한 문제를 해결하는 능력이 중요함. 성적은 그 전공의 요구사항에 부합하는지도 고려해야 합니다.
+3. **자기소개서와 면접**: 강점을 극대화시키는 자기소개서를 작성하고, 면접에서도 이론과 현장의 연결을 명확히 전달함으로써 차별화된 인상을 주어야 합니다.
+4. **경쟁자**: 지원하는 대학의 기준과 결정한 성적에서 비교해야 합니다. 일부 고등학교나 대학은 상위 수험자들만이 진학을 보장하기 때문에, 3.75의 성적도 경쟁력이 될 수 있습니다.
+5. **지원후 계획**: 학부나 대학원에서의 전공, 연구, 인턴십과 같은 맥락을 고려한 진로를 세우는 것이 중요합니다.
+마지막으로, 성적만으로는 안정적인 판단을 내리기 어렵다는 점에서도 자기소개서, 면접 대비를 우수하게 진행한다면, 3.75의 성적을 바탕으로 최초등록자가 되는 기회는 충분히 있을 수 있다고 결론지어집니다.
+이 과정에서는 모든 요소를 종합적으로 고려하고, 자기진단보다는 타인의 피드백을 중시하는 검토가 유용할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 수능 최저학력기준에 대한 구체적인 정보를 제공하지 않으며, "4.2"라는 성적이 가상의 성적이라고 언급하고 있습니다. 그러나 원본 텍스트에서는 4.2가 경영정보학과의 평균 등급보다 낮다고 명시하고 있어, 이 부분에서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 원본 텍스트는 4.2라는 성적이 낮다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용이 포함되어 있습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 수능 최저학력기준에 대한 일반적인 지침을 제공하고 있지만, 원본 텍스트의 핵심 내용인 4.2 성적의 합격 가능성에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 지침을 나열하고 있지만, 원본 텍스트의 주제와의 연결이 약해 보입니다. 따라서 논리적 흐름이 다소 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있으며, 4.2 성적에 대한 잘못된 해석을 제공합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 특히 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 주제와 관련된 정보가 부족하여 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 내용이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>0.8189643223462216</v>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 경영정보학과나 기타 모집단위의 구체적인 수능 최저학력기준이 명시되어 있지 않습니다. "4.2"은 가상의 성적으로, 정확한 수치를 바탕으로 진단하기는 불가합니다.
+그러나 다음과 같은 일반적인 지침을 고려해보세요:
+1. 모집단위의 수능 최저학력기준이 공시되어 있는 경우, 자신의 성적(4.2)보다 높아야 합니다 (일반적으로 A~D 표기).
+2. 모집단위에서는 학교생활기록부(구분 면접)의 비중이 다를 수 있습니다.
+3. 2단계 참여기업 면접에서도 우선순위가 정해져 있습니다 (일반적으로 A~D의 성적).
+4. 지원자격을 충족하고, 서류를 제출하여 면접에서도 합격해야 합니다.
+경영정보학과나 기타 모집단위의 구체적인 수치를 확인한 후, 자신의 성적이 요강을 만족하는지 꼭 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하지만, 수능 성적이 평균보다 낮다는 원본 텍스트의 주장을 명확히 반영하지 않고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 수능 성적이 평균보다 낮다는 점을 간과하고 있습니다. 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 경영정보학과의 합격 기준에 대한 정보를 제공하고 있으며, 원본 텍스트와 관련이 있습니다. 그러나 원본 텍스트의 핵심 내용을 완전히 반영하지는 않으므로 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 일부 반영하지만, 수능 성적이 평균보다 낮다는 점을 명확히 하지 않아 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점과 약점을 가지고 있으며, 전반적으로 평균적인 품질을 보입니다. 따라서 다차원 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 따라서 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>0.7895645560898051</v>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 5.33으로 일반학생전형 경영정보학과 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>주어진 문제에서는 동의대학교 정시 모집요강이나 일반학생전형 경영정보학과의 합격기준에 대한 구체적인 수치가 제공되지 않았습니다. 그러나 포함된 정보를 바탕으로 일반적인 해석을 드리겠습니다:
+- 경영정보학과의 모집요강에서는 수능성적이나 면접평가를 기준으로 합격선을 제시하고 있습니다.
+- 정식 지원자의 경우, 수능성적(5.33)은 모집요강에서 필요한 기준을 초과하고 있는 것으로 보입니다.
+- 면접도 중요한 요소이며, 학교생활기록부(구분제출)의 종합평가에서 우수한 성적을 받아야 합니다.
+일반적인 관점에서는, 수능성적(5.33)이 모집요강의 기준보다 우수하고 면접도 전문적인 지식을 확보한 것으로 가정되면, 경영정보학과에서 합격이 가능할 수 있다고 제안할 수 있습니다.
+그러나 정식 지원자의 경우, 동일한 기준을 명시하거나 면접에서의 구체적인 평가방식이나 합격선은 제공되지 않으니, 정확한 진단을 내리기는 어렵습니다.
+동의대학교에서 일반학생전형 경영정보학과를 지원하고자 하시면, 합격선이나 면접요강을 구체적으로 확인하는 것이 중요합니다. 또한, 학교에서의 기출과 비교한 성적을 제시해주면 도움이 됩니다.</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하지 못하고 있습니다. 원본 텍스트는 3.33의 성적이 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 구체적인 정보가 없다고 언급하며 불확실성을 강조하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 그 가능성을 부정적으로 해석하고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않고 있습니다. 따라서 관련성은 있지만, 핵심적인 정보가 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 단계를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 각 단계가 원본 텍스트의 내용과 어떻게 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 3.33의 성적이 합격 가능성이 높다는 정보를 무시하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 주제에 대한 적절한 해석이 부족하여 의미적으로 완벽하게 적합하지는 않습니다.
+9. Understandability Score (1-5): 3  
+   - 생성된 응답은 이해할 수 있지만, 정보가 명확하게 전달되지 않아 다소 혼란스러울 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>0.7442969061101009</v>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 동의대학교 '바이오응용공학부'나 그리고 정시모집요강에서 지원자가 3.33점을 기록한 세부사항과 관련하여 구체적인 정보가 명시되어 있지 않습니다。동의대학교에서는 바이오응용공학부를 포함한 모든 과목들의 정시모집요강과 합격기준을 이해하고자 하는 경우, 다음과 같은 단계를 수행하여 가능성을 판단할 수 있습니다.
+1. **합격기준 확인**: 동의대학교에서는 바이오응용공학부를 지원하는 경우, 정시모집요강에서 제시된 수학능력(수능), 인문사회과목의 평가, 면접 성적 등이 합격기준을 만족하는지 확인해야 합니다.
+2. **전형요소 비율**: 문서에서는 학생부종합(일반고, 국제고)의 경우 스마트호스피탈리티학과, 미래형자동차학과, 소프트웨어융합학과에서의 면접 비율이 60:40:40로 나타났지만, 바이오응용공학부의 경우 그 비율은 다를 수 있습니다.
+3. **동일한 요강에서의 성적**: 동의대학교가 바이오응용공학부에도 정시모집을 진행하고 있는지, 그리고 비슷한 요강과 관련된 성적의 사례가 이전에 나왔는지 조사해야 합니다.
+4. **대학교수편입자(SOTA)제도**: 일부 국내 대학들은 SOTA를 받을 경우, 기존의 성적에서 인정하여 합격선을 다시 평가해주는 제도를 구현하고 있습니다.
+5. **대학신청 상담**: 동의대학교나 바이오응용공학부에서 정시모집과 관련된 구체적인 지침, 기준을 제공하는 신입생 상담팀이나 대학웻부에 문의해서 자세한 조언을 구합니다.
+요강과 성적만으로는 정확한 진단은 내릴 수 없지만, 이러한 방법들을 사용하여 가능성에 대해 조금의 기대를 드릴 수는 있습니다.
+정확한 진단을 위해서는 동의대학교나 바이오응용공학부에서 제공하는 구체적인 지원자 기준과 요강에 대한 상담사항을 고려해보시는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 방사선학과의 평균 등급에 대한 정보와 합격 가능성에 대한 언급이 있지만, 구체적인 수치나 기준에 대한 정보가 부족하여 일부 사실이 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 방사선학과의 합격 가능성에 대한 언급이 있지만, 원본 텍스트의 정보와 일치하지 않는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 방사선학과와 관련된 정보와 조언을 제공하고 있지만, 원본 텍스트의 핵심 내용에 대한 직접적인 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편이지만, 일부 문장이 다소 복잡하여 이해하기 어려운 부분이 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 구조를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 방사선학과에 대한 정보가 포함되어 있지만, 원본 텍스트의 구체적인 수치와 기준을 정확히 반영하지 못하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 방사선학과에 대한 조언을 제공하고 있지만, 원본 텍스트의 맥락과 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 일부 문장이 복잡하여 명확성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>0.7552152366863991</v>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">정시 모집요강에서는 다음과 같은 기준이 제시되어 있습니다:
+4. 동점자 처리기준\n&lt;나&gt;군 수능\n(일반학생전형 )1 수능 국어(표준점수 ), 수학(표준점수 ), 영어(등급에 따른 점수)영역의 합계점수 상위자\n\n방사선학과나 유사한 교양전형을 제공하는 대학이나 모집단위를 선택할 때, 합계점수가 상위자에 해당하는지 고려해야 합니다.
+4.4의 정시 성적은 일반적으로 '0점'을 기준으로 평가하는 대학에서는 상위자를 제한할 수 있지만, 합계점수의 범위나 교양전형을 강조하는 다른 대학도 존재합니다.
+방사선학과를 진행할 수 있는지에 대한 구체적인 제안을 드리기 위해서는 다음 정보가 필요합니다:
+1. 방사선학과를 강조하는 교양전형이나 모집단위의 합계점수 기준을 알아보세요.\n2. 동일한 대학에서도 다른 성과를 가진 비교형 전공(인문사회과학, ICT융합공과)의 합계점수 기준을 조사해보세요.\n3. 방사선학과에서는 높은 성적이 필요한지, 교양전형도 중시하는지를 고려합니다(일부 대학은 동류의 수학/미적분을 강조).\n4. 모집단위에서 차차년도 감축이나 인원제한과 관련된 세부사항을 확인하여, 동점자로 인해 모집인원에서 유리할 수 있는지를 이해합니다.\n
+대학별 성적 기준을 조사하고, 그것들과 자신의 정시 성적(4.4)을 비교함으로써 방사선학과에서의 합당한 기회를 판단하세요。대학 웹사이트, 정시모집 상담원, 지역 고등학교나 성격을 조사하는 전문가의 도움을 구할 수도 있습니다.
+</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "2.66"이라는 수치가 문서에 나타나지 않는다고 주장하지만, 원본 텍스트에서는 "2.66"이 명확하게 언급되고 있으며, 이 수치에 대한 해석도 제공하고 있습니다. 따라서, 사실과 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, "2.66"에 대한 정보가 없다고 주장합니다. 이는 원본 텍스트와 상충하는 내용으로, 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 "2.66"에 대한 문맥을 요청하고 있지만, 원본 텍스트에서 이미 이 수치에 대한 해석이 제공되고 있습니다. 따라서, 응답이 원본 텍스트의 핵심 주제와 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 흐름이 방해받고 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 손상되었습니다. 그러나 전반적으로는 이해할 수 있는 수준입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, "2.66"에 대한 정보가 없다고 잘못 주장하고 있습니다. 이는 명백한 부정확성입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 이해하고 있으며, "2.66"에 대한 문맥을 요청하는 것은 부적절합니다. 원본 텍스트에서 이미 제공된 정보를 무시하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원본 텍스트와의 불일치로 인해 혼란을 초래할 수 있습니다. 명확한 정보가 부족하여 다소 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>0.7334435669395954</v>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 "2.66"이라는 수치가 나오지 않기 때문에, 방사선학과의 정시 평가에 대해 구체적인 내용을 제공하지 못합니다.
+2.66은 금방 이해할 수 있는 학업성취도나 기준에 대한 정보가 아닐 경우, 그 의미를 파악하지 못합니다.
+방사선학과의 정시 결과를 이해하기 위해서는 "2.66"에 대한 문맥을 제공해주세요. 예를들어, GPA(평균성적), 특정 시험의 점수나 등급이라면 그에 대한 구체적인 해석과 어떤 위험을 의미하는지를 제공할 수 있습니다.
+현재로서는 정보가 부족하여 그 의미를 판단하기 어렵습니다.
+### 관련 내용: 아무 것도 제공하지 않아
+문서에는 "2.66"과 관련된 구체적인 정보가 나타나 있지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 포함하고 있지만, "농어촌" 전형에 대한 구체적인 언급이 없고, 경쟁률에 대한 정보가 다소 모호하게 표현되어 있습니다. 또한, "5:1"이라는 경쟁률이 현재의 상황을 반영하는지에 대한 명확한 출처가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 경쟁률에 대한 정보가 다르게 제시되어 있어 일관성이 떨어집니다. 원본 텍스트는 평균 성적과 경쟁률의 감소를 강조하고 있지만, 생성된 응답은 경쟁률이 5:1로 나아졌다고 언급하고 있어 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가적인 정보와 조언을 제공하여 다소 벗어난 부분이 있습니다. 그러나 전반적으로 경찰행정학과의 경쟁률과 관련된 내용을 다루고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어져서 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해져서 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 경쟁률에 대한 정보가 원본 텍스트와 일치하지 않으며, "농어촌" 전형에 대한 구체적인 언급이 부족합니다. 따라서 정확성 점수가 낮아집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 내용이 다소 불필요하게 추가되어 있어 의미의 명확성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 조언을 제공합니다. 그러나 일부 문장이 길어져서 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>0.7798848341811607</v>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>제 동의대 정시 성적이 3.66이 나오는데요 경찰행정학전공 농어촌으로 넣었는데 13일 기준으로 지금 경쟁률이 5:1이거든요?  작년 2020년도 경쟁률이 7:1이던데 이거 희망을 가지고 있어도 되는 부분인가요? 불안해요</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>제공된 정보에서는 2024학년도의 경찰행정학전공(농어촌)에서의 지금까지의 경쟁률이 5:1인 것을 나타내고 있습니다. 과거 2020년도의 경쟁률은 7:1로 보였지만, 현재의 경쟁상황이 5:1로 가장 나아진 것을 시사합니다.
+성공에는 영향을 미칠 수 있는 여러 요인들이 있지만, 경쟁률의 감소를 보면서 합격 기대도 다시 한 번 고민해 보는 것은 타당합니다.
+희망을 가지고 있어도:
+1. **성과**: 자신의 수학, 영어 등의 전공에서의 성과를 중시해야 합니다.
+2. **선호 대학**: 지원하는 대학이나 기관의 요구사항을 만After School Test(ASAT)나 기타 자격에 도전한 증명서를 제공해 더 강력한 인상을 남길 수 있습니다.
+3. **대비**: ASAT나 ACT/SAT과 같은 시험에서의 성적, 학습지도를 강화하여 자신만의 매우 강점을 보일 수 있습니다.
+4. **대학선택**: 경쟁이 가중되는 곳에서는, 성과나 자기소개서를 고려하여 지원하는 대학을 조정해보는 것도 현명할 수 있습니다.
+5. **모호한 경우**: 일부 대학에서는 더 상세한 지원요소를 고려하여 선택이나 합격의 기회가 좌우될 수도 있습니다.
+경쟁률만으로는 정확한 전망을 내리기에 어려움이 있지만, 자신의 강점과 대비전략을 세우면서도 긍정적인 태도를 유지하는 것이 중요합니다. 학부모나 교사, SHS(성공한 고등학생)들과의 상담을 통해 구체적인 조언을 도출하는 것도 유용할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동점자와 관련된 여러 요인을 설명하고 있지만, 원문에서 언급된 특정 학과와 예비 번호에 대한 정보는 포함되어 있지 않으며, 원문과의 관련성이 떨어진다. 따라서 사실성 점수는 낮다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문에서 제시된 정보와 일관성이 부족하다. 원문은 특정 학과와 예비 번호에 대한 합격 가능성을 언급하고 있지만, 생성된 응답은 동점자 처리에 대한 일반적인 설명으로 일관성이 떨어진다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동점자와 관련된 정보를 제공하지만, 원문에서 질문한 특정 상황에 대한 직접적인 답변이 부족하다. 따라서 관련성 점수는 중간 정도로 평가된다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없다. 따라서 유창성 점수는 높게 평가된다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요인을 나열하고 있지만, 전체적으로 논리적인 흐름이 다소 부족하다. 각 요인 간의 연결이 명확하지 않아 일관성이 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 동점자와 관련된 정보를 제공하지만, 원문에서 요구하는 특정 정보(예비 번호와 합격 가능성)에 대한 정확한 답변이 부족하다. 따라서 정확성 점수는 낮다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 동점자에 대한 설명을 제공하지만, 원문에서 요구하는 정보와는 다소 동떨어져 있어 의미적으로 적절하다고 보기는 어렵다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있어 이해 가능성 점수는 높게 평가된다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>0.5630144034463462</v>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>정시 일반학생의 경우, "동점자"라는 용어를 사용하여 인원이 모집단위에서 함께 합격한 상황을 나타낼 수 있지만, 정확한 신청자들의 성공 가능성은 다음과 같은 요인에 따라 다를 수 있습니다:
+1. **모집단위 기준**: 동점자의 합격 기준이나 정시 전형에서의 인원 제한은 어떤 수학성적을 가진 신청자들도 모두를 선발하는지에 영향을 미칩니다.
+2. **전과정의 기준**: 일부 학과나 모집단위에서는, 수능성적만이 아니라도 인문사회과학, ICT융합공과, 패션디자인과 같은 기타 전형요소(실기/실적)에서의 성적도 고려하여 동점자를 정할 수 있습니다.
+3. **모집인원**: 선발한 인원이 모집단위의 합격 인원을 초과하지 않는다면, 동점자들은 모두를 포함시키기 위해서 차차년도에서 신청자들의 합격을 조정해야 합니다.
+4. **동점자 처리 방법**: 모집단위나 학과마다, 동점자를 어떤 식으로 관리하는지(선택, 차차년도에서의 제외, 합산한 전체 성적을 고려)가 다를 수 있어 신청자들이 모두 합격할 가능성에도 영향을 미칩니다.
+5. **전과정의 종합적인 평가**: 일부 학과는 수능, 실기/실적, 그리고 동아울림(자기소개서)을 모두에게 중요시하여, 단일성적 지표로만 신청자를 선발하는 경우가 드물어집니다.
+이러한 고려 사항을 바탕으로, "동점자"라는 용어만으로는 정확한 신청자의 성공 가능성을 결정하기에는 부족합니다. 그러나, 동점자들이 모집단위의 인원 제한을 크게 초과하지 않고, 전과정에서도 기타 요소(실기/실적)가 우수한 경우, 모두를 합산해서 인원을 조정함으로써 일부의 동점자들이 합격하는 가능성은 존재합니다.
+요약하면, "동점자"라는 개념을 통해서도 정확한 신청자의 인원이 모두를 가질 수 있다고 단언하기에 어려운데, 일부는 합산과 조정을 통해 선발되는 경우도 존재합니다. 구체적인 가능성은 위의 요소들에 대한 자세한 정보를 바탕으로 계산하거나, 모집단위가 제공하는 동점자 처리 방법을 이해해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교의 정시 모집 전형에 대한 정보와 관련된 사실을 잘못 전달하고 있습니다. 특히, '법경찰행정학부'가 존재하지 않는다는 점을 간과하고 있으며, 경찰행정학과에 대한 구체적인 성적 기준을 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 경찰행정학과의 성적 기준에 대한 구체적인 수치를 제공하고 있지만, 생성된 응답은 일반적인 성적 기준을 제시하며 구체적인 수치를 제공하지 않습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 정시 모집과 관련된 내용을 다루고 있지만, 원본 텍스트의 핵심 정보인 경찰행정학과의 성적 기준에 대한 구체적인 내용과는 거리가 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 각 항목 간의 연결이 명확하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 특히, 성적 기준에 대한 설명이 원본 텍스트의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 다차원적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 3  
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장은 복잡하게 구성되어 있어 명확하게 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>0.7721056296846505</v>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>제공된 동의대학교 정시모집에서의 동점자 처리기준에 따르면, 평균 성적이 안정권을 보장하려면 다음과 같은 요구사항을 충족해야 합니다:
+1. **서류 성적 상위자**: 모든 학문 영역(국어, 수학, 영어, 한국사, 사회/도덕)의 평균 등급이 높아야 합니다. '상위자'는 A등급(1등급), B등급(3등급)을 의미하며, 이는 모두 우수한 성적을 나타냅니다.
+2. **국어, 수학, 영어, 사회/도덕과 과학교과전 과목의 평균 등급**: 이들 주요 과목에서도 상위 성적을 유지해야 합니다.
+3. **국어교과전 등급의 평균**: 특히 국어학부에는 '상'(1등급)을 유지해야 합니다.
+4. **영어교과전 평균 등급**: 이 기준도 A등급(1등급), B등급(3등급)을 유지해야 합니다.
+5. **진로선택과목의 성적**: 이들에 대한 성취도는 A, B, C (1, 3, 5등급)를 기준으로 정해지며, 평균 등급이 '상'을 유지하는 것이 중요합니다.
+동의대학교에서 문과 기타를 모두 고려한다면, 정시모집에서 A등급(1등급)을 유지하는 평균 성적이라면 안정권일 가능성이 높아지며, 합격에 도전해야 할 수도 있습니다.
+그러나 동점자의 경우는 모집인원과 상대적인 성적을 고려하여 각 학문 영역에서 A(1등급)를 유지한다면, 동점자들도 모두 합격할 가능성이 높아지므로 그 인원을 고려하여 모집인원에 비해서는 부족한 경우, 차차년도의 감축과 동일편성(동점자)이 가능합니다.
+정확한 기준은 대학교에서 제공하는 모집 요강을 주의깊게 읽어보고, 동아리, 경진회 성적과도 반영함이 중요합니다. 정시에서 '안정권'은 일반적으로 모집인원의 상당부분을 차지하는 학생들을 포함합니다.
+동기에서 정확한 성적관리를 위해, 대학교가 제공하는 모집요강과 역사적인 지원자들의 성적을 분석하고, 필요한 영역에서 개선이 필요한지를 정확히 평가해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 2024학년도 정시 모집요강에 대한 정보가 부족하다고 언급하고 있지만, 원문에서는 아동학과의 평균 등급과 합격 가능성에 대한 구체적인 정보를 제공하고 있습니다. 그러나 생성된 응답은 이 정보를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 보육가정상담학과와 아동학과의 관계에 대한 명확한 설명이 부족하여 일관성이 떨어집니다. 특히, 정시모집과 일반모집의 차이에 대한 설명이 원문과의 연결이 약합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주어진 질문에 대해 관련된 정보를 제공하고 있지만, 원문에서 제시된 아동학과의 평균 등급과 합격 가능성에 대한 구체적인 내용을 충분히 다루지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 구체적인 데이터와 비교할 때, 정확성이 떨어지는 부분이 있습니다. 특히, 아동학과의 평균 등급에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주어진 질문에 대해 적절한 의미를 전달하고 있으나, 원문에서의 구체적인 정보와의 연결이 부족하여 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>0.6394512802046389</v>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>보육가정상담학과 2023 합격 70퍼 컷이 5.33인데 제 동의대식 정시 산출 등급이 5.33이거든요. 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>주어진 정보에서는 보육가정상담학과의 2024학년도 정시 모집요강이나 동일한 기간(2023)의 구체적인 산출 기준에 대해 명확하게 제공되지 않습니다. 그러나 동일한 합격 요건(5.33)을 사용하고 있다면, 여러 가지를 확인해보아야 합니다:
+1. **정시 vs 일반**: 정시모집과 일반모집은 기준이나 산출 방식이 다를 수 있습니다. 만약 5.33이 2024학년도의 정시모집에서는 합격기준일 경우, 동일한 요건을 고려하여 2023년도의 정시모집에서도 유효할 수 있습니다.
+2. **기타 요인**: 동일한 학과나 대학에서는, 합격등급이 단일 점수만으로 판단하지 않고 다음을 고려합니다:
+   - 모집요강의 구체적인 기준 (전형명, 동점자 처리 방식 등)
+   - 수능과 비수학영역에서의 성적(일반 vs 검정고시, ICT융합대학을 제외한다면)
+   - 기타 요소 (교양상항, 자기주장서, 인문사회과학 등의 구성 부분)
+3. **동의대식**: 동의대식은 일반고를 위한 보조적인 지원이며, 정시모집에서는 기본 합격자로 평가되지 않을 수 있습니다.
+5.33의 동일한 해당성을 보장하려면, 정시모집에서도 같은 기준이나 평가방식을 사용하는지 확인해야 합니다. 대학의 공고나 상담원과 정당한 이유를 제시받은 경우, 동일한 성적에도 합격할 가능성을 고려해보세요.
+대학의 구체적인 정보나 상담원과의 면담이 부족한 경우, 그곳에서 자세히 문의하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 충원 합격자 발표 및 등록 일정에 대한 구체적인 정보를 제공하지 않고, 지원자 기준에 대한 잘못된 해석을 포함하고 있습니다. 원본 텍스트의 핵심 정보를 왜곡하고 있으며, 예비 번호와 관련된 합격 가능성에 대한 설명이 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 예비 번호에 따른 합격 가능성을 언급하고 있지만, 생성된 응답은 이를 무시하고 다른 기준을 제시하고 있습니다. 이로 인해 정보의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 일부 관련 정보를 포함하고 있지만, 원본 텍스트의 핵심 주제인 충원 합격자 발표와 예비 번호에 대한 내용과는 거리가 있습니다. 지원자 기준에 대한 언급은 있지만, 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못합니다. 여러 가지 조치를 제안하지만, 이들이 원본 텍스트와 어떻게 연결되는지 명확하지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 예비 번호와 관련된 합격 가능성에 대한 설명이 부정확하며, 원본의 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았습니다. 이로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 일부 의미적으로 적절한 내용을 포함하고 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 지원자 기준에 대한 언급은 있지만, 질문의 맥락과는 맞지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장은 복잡하여 명확한 이해를 방해할 수 있습니다. 정보의 흐름이 매끄럽지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>0.6019521840619934</v>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 3차에서 예비 12 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>제공된 정보는 Dong-eui University의 모집요강에서 나오는 구체적인 지원자 기준과 일치하지 않아, 특히 '동의대학교 보육가정상담 3차'에서의 합격 여부를 명시하고 있지 않습니다.
+그러나 제공된 동기들이 '성적 평균', '국어, 수학, 영어, 한국사, 사회(역사/도덕)'의 전 과목에서 상위를 차지하고 있다면, 이는 모집요강의 '성적 평균'을 기준으로 합격 가능성을 보는 일반적인 전략에서 유리하다고 할 수 있습니다.
+그러나 정확한 합격여부를 가능に해야 하므로, 다음과 같은 조치를 고려해보아야 합니다:
+1. Dong-eui University의 모집요강을 확인하여 '동기', '지원자 기준'이나 '상금가정상담에서의 합격 기준'과 일치하는지 확인해야 합니다.
+2. 모집요강을 제공한 전체 자료를 신중히 검토하여, 동기들이 정확히 지원 기준에 부합하는지 확인해야 합니다.
+3. Dong-eui University의 상담사나 자문가를 상담하여, 제공한 자료와 기준을 바탕으로 합격 가능성에 대해 조언을 구합니다.
+4. 모집요강이나 지원서의 '동시 지원 제한'과 같은 내용도 확인하여, 목표로 하는 대학에 합격할 수 있는 자리가 남아 있는지 판단해야 합니다.
+이러한 조치를 통해, Dong-eui University의 '보육가정상담 3차'에서의 합격 여부를 신중하게 평가할 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, 잘못된 정보와 혼란스러운 해석을 포함하고 있습니다. 원본 텍스트는 정시 성적 4.75로 지원 가능한 학과에 대한 정보를 제공하고 있지만, 생성된 응답은 면접 평가와 관련된 내용으로 전환되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트는 특정 학과에 대한 성적 기준을 제시하고 있지만, 생성된 응답은 전혀 다른 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용인 정시 성적과 지원 가능한 학과에 대한 정보가 전혀 반영되지 않았습니다.
+4. Fluency Score (1-5): 3
+   - 생성된 응답은 문법적으로 어느 정도 이해할 수 있지만, 내용이 혼란스러워서 읽기 어렵습니다. 문장 구조는 괜찮지만, 주제가 일관되지 않아 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 여러 가지 주제를 다루고 있지만, 이들 간의 연결이 부족하여 일관된 논리적 흐름이 없습니다. 원본 텍스트와의 관련성이 떨어져서 전체적으로 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 원본 텍스트의 성적 기준과 관련된 정보가 전혀 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트의 핵심 내용을 전혀 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제가 완전히 다릅니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 2
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 혼란스러워서 명확하게 이해하기 어렵습니다. 주제가 일관되지 않아 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>0.7713630082639212</v>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>제공된 정보에 기반하여 분석해 봅시다:
+1. 2024학년도 정시 신입생의 면접평가는 5단계로 구성되어 있으며, 각 영역에서 다음과 같은 등급이 부여됩니다: 1, 2, 3, 4, 5.
+2. 모든 영역의 최고 득점(최고 득점)은 계절로부터 400점이고, 최저 득점은 280점입니다.
+3. 교과성적(학업역량)에서는 5단계로부터의 최고 합계가 168점, 최저 합계는 240점이라고 나와 있습니다.
+당신의 경우 4.75를 제시하셨지만, 정수로는 아닙니다 (면접평가에서는). 이는 문자기호(1-5)나 비율/소수의 값일 가능성을 시사하고 있습니다.
+유아교육학과를 평가한다면:
+- **학업역량**: 4단계(교과성적)에서의 최고 합계는 168점이므로, 유아교육학과를 포함하여도 이 영역은 상대적으로 어려울 가능성이 높습니다.
+- **전공적합성**: 유아교육학과의 특정한 내용에는 구체적인 수치가 제공되지 않았지만, 전공적합성은 3단계(서류평가)로부터의 최고 합계는 136점이라고 나와 있어, 여기에도 상대적인 비중을 가집니다.
+4.75를 정수로 해석하려면:
+- **학업역량**의 경우, 이는 합계에서 상위자일 가능성을 나타내지만, 4.75를 정수로 해석하기는 어렵습니다 (168의 비율이나 소수).
+- **전공적합성**에서도 마찬가지로, 4.75를 정수로 해석하기는 어렵습니다 (136의 비율이나 소수).
+요약하자면, 유아교육학과에서 4.75를 '성적'을 가리키는 정수로 해석하기는 어렵습니다. 이것은 비율(소수)일 가능성이 높고, 상대적인 지표일 가능성도 강합니다.
+정부나 학교의 구체적인 면접평가 방법에서는 '4.75'이 어떤 객체(비율, 소수)를 나타내는지 명확하게 해야 정확한 해석을 내기가 됩니다.</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하고 있지만, 원본 텍스트의 구체적인 수치(영어 등급 평균 6.33, 수능 4개 영역 등급 평균 7.08)를 언급하지 않고 있습니다. 또한, '동의대'라는 학과에 대한 정보가 추가되어 있으나, 이는 원본 텍스트와의 일관성을 떨어뜨립니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, '동의대'라는 학과에 대한 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트의 핵심 정보와는 다소 다른 방향으로 전개되고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 수치와 비교할 때 다소 부족합니다. 그러나 전반적으로 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 요소를 나열하고 있으나, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 각 항목 간의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 다소 차이가 있으며, 특히 '동의대'라는 학과에 대한 정보가 추가되어 있어 정확성이 떨어집니다. 원본 텍스트의 수치와 비교할 때 명확한 근거가 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 일관성과 정확성에서 부족함이 있습니다. 그러나 관련성은 높습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 구체적인 수치와 비교할 때 다소 부족합니다. 전반적으로는 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 그러나 주요 내용은 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>0.722742310419781</v>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>제공된 정보에 기반하여, '동의대'라는 학과를 가진 일반학생전형(보육가정상담학과)을 모집요강에서 합격시킬 수 있는지 이해하기 위한 단계를 제안할 수 있습니다:
+1. **학과별 동점자 처리기준**: '동의대'에서는 일반학생전형(보육가정상담학과)을 모집하고 있음이 명시되어 있습니다.
+2. **수능성적/실기요소**: 동의대에서는 일반학생전형을 위해 국어, 수학, 영어(등급에 따라 점수)를 고려하도록 명시되어 있습니다.
+   - **수능**: 합계점수나 특정영역의 상위자에 중점을 두고 있음이 보여지며, 동시에 ICT융합공과대학(미적분/기하)나 한의예과를 모집단위로도 포함하고 있음.
+   - **실기**: 동일한 영역에서는 '0점'을 부여하며, 상기 동점자 처리기준이나 ICT융합공과대학(수학)의 경우를 고려할 가능성도 있음.
+3. **각 모집단위에서의 요구**:
+   - **인문사회과학대학, 상경대학, 한의예과**: ICT융합공과대학(수능/수학)이나 한의예과를 모집하고 있어서, 긍정적인 수학영역 성적을 가지고 있다면 합격에 유리할 수 있음.
+   - **패션디자인학과**: 국어영역의 상위점수를 보유한 경우, 동일한 모집단위에서도 합격이 가능성이 클 수 있음.
+4. **신입생의 정시환산**: 정시환산은 '0'부터 '4.60'까지로, 당신이 4.16라고 나와 있습니다.
+   - **합격선과의 비교**: 정시환산에서는 '0'부터 '4.60'까지가 모두 합격이 가능한 구조인 것으로, 그 중 '4.16'은 상당히 나은 성적입니다.
+   - **모집단위의 합격선**: 정확한 합격선이나, 동시에여도 합격되는 인원을 보유하고 있지만, '0'부터 '4.60'까지의 구조를 가정할 수 있다면, 4.16은 합격에 도전할 수 있는 매우 유리한 성적일 가능성이 높음.
+요약하자면, '동의대'를 제외하고는 정보만으로는 확신을 갖기 어렵지만, 합격선이나 모집단위에서의 구조가 명시되지 않은 경우 '0'부터 '4.60'까지를 고려할 수 있다면, 4.16는 합격에 유리한 성적일 가능성이 높아 보입니다.
+그러나 정식 모집요강이나 환산기준을 확인하는 것이 중요합니다. 구체적인 선택에는 '0'부터 '4.60'의 범위를 보유한 모든 학생들을 대상으로 하지만, 합격요건이나 동시여ng인원에 영향을 미치는 경우가 있기 때문입니다.
+모집단위의 구체적인 요건이나 합격선을 정확하게 아시면, 그에 대한 성적분석은 더욱 명확해집니다.</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 명확히 반영하지 않고 있으며, 다른 학부의 정보와 관련된 내용을 포함하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 지원 불가라는 원문과 일치하지 않는 정보(다른 학부의 모집 정보 등)를 포함하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 직접적인 답변을 제공하지 않고, 다른 학부의 정보로 주제를 확장하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있으나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 소프트웨어융합학과에 대한 명확한 결론이나 요약이 부족하여 일관된 흐름이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 지원 불가라는 사실을 정확히 반영하지 않으며, 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 전반적으로 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받아 다차원적인 품질이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 소프트웨어융합학과의 정시 지원 불가라는 핵심 사실을 간과하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 주제가 분산되어 있어 핵심 메시지가 다소 흐려질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>0.7404213855185945</v>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 소프트웨어융합학과의 정시모집정보가 명시되지 않습니다. 그러나 2024학년도 정시 신입생을 모집하는 라이프융합학부, 사회라이프, 융합학부, 미래융합대학인문, 부동산자산경영학부, 경영학부의 정보를 제공하고 있습니다.
+소프트웨어융합학과가 이러한 대학에서 모집단위로 구성되어 있지는 않기 때문에, 제공된 정보를 바탕으로 소프트웨어융합학과의 모집단위나 평균 성적을 가정하기는 어려우겠지만, 다음과 같은 일반적인 제안을 드리거나 대학의 성적편차를 조사해보면 도움이 될 수 있습니다.
+1. **소프트웨어융합학과 모집단위**: 대학의 정보를 문서나 공식 웹사이트에서 확인하여, 소프트웨어융합학과가 제공되는지 확인해보세요.
+2. **평균성적**: 대부분의 대학에서는 전국시장일수록 모집단위나 기타 정보를 제공합니다. 이 정보가 있는 경우, 소프트웨어융합학과의 성적편차(GPA)를 볼 수 있을 것입니다.
+대학이나 모집단위에서는, '정시'라고 명시하지만 GPA가 공개되지 않은 경우, 일부 대학은 성적편차(Grade Point Average)나 기타 자격요건을 제시합니다.
+소프트웨어융합학과의 GPA에 대한 구체적인 정보를 얻고 싶다면, 해당 대학이나 모집단위에서 공식적으로 제공하는 자료를 확인하거나 대학 정보의 전문가나 지원 기관과 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 "세특"과 관련된 구체적인 내용이 명시되어 있지 않다고 언급하고 있지만, 원문에서는 서류 평가와 면접 고사에 대한 정보가 제공되고 있습니다. 그러나 "세특"에 대한 구체적인 지침이 부족하다는 점은 사실입니다. 따라서 일부 사실은 반영되었으나, 전반적으로 정확한 정보 전달이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 일치하는 부분도 있지만, "소프트웨어 융합"과의 비교가 명시되지 않았다는 점에서 일관성이 떨어집니다. 원문에서 강조된 서류 평가와 면접 고사에 대한 정보가 충분히 반영되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 "세특"과 관련된 내용을 다루고 있으며, 원문에서 언급된 서류 평가와 면접 고사와 관련된 정보를 포함하고 있습니다. 그러나 "소프트웨어 융합"과의 구체적인 비교가 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 "소프트웨어 융합"과의 비교가 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보의 일부를 정확하게 반영하고 있지만, "세특"에 대한 구체적인 지침이 부족하다는 점에서 정확성이 떨어집니다. 원문에서의 정보가 충분히 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성, 정확성에서 부족함이 있으며, 관련성은 다소 높지만 여전히 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, "세특"에 대한 중요성을 강조하고 있습니다. 그러나 "소프트웨어 융합"과의 비교가 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>0.6045173331684368</v>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>제공된 문장에서는 "세특"과 관련된 구체적인 내용은 명시되어 있지 않습니다. 그러나, 문장에서는 "학교생활기록부"를 중심으로 한 세특과 관련된 제출요구와 오류가 다수 명시되어 있습니다.
+면접에서는 "학교생활기록부"의 세특을 강조하고, 구체적인 경험과 근거를 제공해야 한다고 지시하고 있습니다:
+- 학교생활기록부에 기재될 내용을 학생이 작성토록 하여 기재해야 한다.
+- 각 영역의 내용을 교사가 분석·검토한 결과를 바탕으로 학생이 기재해야 한다.
+- "학교 밖에서의"나 "학교외에서의"개인 경험을 학교생활기록부에 일관성이 없이 기재하지 말아야 한다.
+- 과장된 "내용"의 기재나, 교과 학습 상황과 모호한 세부사항을 기재하는 오류를 지적하고 있음.
+이것은 "세특"에 대해서만 면접의 중요성과 제출방법에 대한 명확한 정보를 제공합니다. 그러나 이를 바탕으로 "소프트웨어 융합"과의 구체적인 비교는 명시되지 않습니다.
+면접에서는 "세특"을 중요하게 여기고, 문제가 되는 구체적인 내용이나 소프트웨어 융합과의 비교를 명시적으로 요구하지 않은 것으로 보입니다.
+면접에서는 "세특"을 강조한 몇 가지 제출요령이 명시되어 있음을 알 수 있습니다. 소프트웨어 융합과의 세부사항에 대한 구체적인 지침이나 "독립"하는 서류가 제공되지 않은 경우, 면접 전에 "세특"을 중심으로 구체적인 내용과 근거를 다시 정리하는 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 2024학년도 정시모집에 대한 정보를 제공하고 있지만, 원본 텍스트에서 언급된 최초합격자의 평균 성적(4.12)과 비교하여 4.08의 성적이 약간 높은 수준이라는 점을 명확히 반영하지 못하고 있습니다. 또한, 합격 가능성에 대한 언급이 다소 모호하게 표현되어 있어 정확한 사실을 전달하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 합격 가능성에 대한 해석이 다소 다르게 나타나고 있습니다. 원본 텍스트는 4.08의 성적이 최초합격자의 평균 등급과 근접하다고 언급했으나, 생성된 응답은 면접 성적과 지원자격에 따라 합격 가능성을 언급하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 정시모집에 대한 정보를 제공하며, 질문의 주제와 관련이 있습니다. 그러나 원본 텍스트의 핵심 정보인 평균 성적과 합격 가능성에 대한 명확한 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길고 복잡하여 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 4.08의 성적이 최초합격자의 평균 성적과 비교하여 어떤 의미를 가지는지에 대한 정확한 설명이 부족합니다. 또한, 합격 가능성에 대한 해석이 다소 주관적입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성, 일관성, 정확성에서 다소 부족한 점이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있으나, 일부 내용이 원본의 핵심 메시지를 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 복잡하여 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>0.8086633447033699</v>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>동의대 소프트웨어공학부 정시 성적 산출 했을때 4.08인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>제공된 정보에 기반하여, 동의대학교 소프트웨어공학부의 2024학년도 정시모집에서는 지원자격과 전형요소(수능 비율이나 면접)를 기준으로 합산한 전형총점을 사용하여 선발이 이루어진다고 명시되어 있습니다.
+4.08의 성적은 상당히 우수한 것 같지만, 정확한 합격기준이나 선발인원을 제공하는 자세한 요강이나 성적 소급 정보가 없기 때문에 그대로 확인할 수 없습니다.
+4.08의 경우, 지원자격을 만족하고 면접도 성공적이었다면 (불합검자나 서류미제와 동시에 면접결여를 피한) 2단계 참여기업의 면접고사 성적도 우수하다면, 합격이 가능할 가능성은 존재합니다.
+정시모집에서는 일반적으로 지원자의 전체 요소를 종합적으로 평가하기 때문에, 단일 성적만으로 합격여부를 정확히 결정하는 것은 어렵지만, 우수한 전과제가 있다면 신청을 고려해보는 것이 타당합니다.
+다음의 단계를 통해 정확히 판단하기 위해서는:
+1. 동의대학교에서 소프트웨어공학부의 합격선이나 지원자들의 전형총점별 성적기준을 확인하는 것이 중요합니다.
+2. 소프트웨어공학부에서도 면접의 비중과 그 전형총점별 기준을 확인하는 것이 유용합니다.
+3. 정시모집 지원자로서, 여러 요소를 종합적으로 고려한 전문가의 조언을 구하는 것도 유익할 수 있습니다.
+이러한 정보를 바탕으로, 4.08의 성적자와 면접에서의 전문가 조언을 검토하여 합리적인 신호일 수 있다고 판단되면, 정시모집에 최초로 응시해보는 방안을 검토하는 것이 합리적일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보가 제공되지 않았다는 점을 잘 반영하고 있습니다. 그러나 "정시 평균 5등급을 목표로 하는 경우를 전망할 수 없다"는 표현은 다소 모호하게 느껴질 수 있습니다. 전반적으로 사실에 기반하고 있으나, 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "구체적인 정보로 변경해주신다면"이라는 문구는 원본의 정보 제공 방식과 약간의 차이를 보입니다. 그럼에도 불구하고 전반적으로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 소프트웨어융합학과의 정시 모집에 대한 정보 요청에 적절하게 반응하고 있으며, 관련된 세부사항을 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "구체적인 정보로 변경해주신다면" 부분이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 "성적요건이나 모집요강에서의 구조를 제공해주세요"라는 문장은 다소 갑작스럽게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 그러나 "정시 평균 5등급을 목표로 하는 경우를 전망할 수 없다"는 표현이 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있습니다. 사실성, 일관성, 관련성, 정확성 모두 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확합니다. 그러나 일부 문장은 약간 복잡하게 느껴질 수 있어, 완전한 명확성을 위해 개선이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>0.8020754598374551</v>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>제공한 문서에는 소프트웨어융합학과나 2024학년도 정시 모집요강의 구체적인 세부사항이 명시되지 않아, 소프트웨어융합학과에서 정시 평균 5등급을 목표로 하는 경우를 전망할 수 없습니다.
+문서에서는 학과, 제출서류, 동점자 처리기준, 그리고 성적요건을 명시하고 있지만, 이를 소프트웨어융합학과에서의 구체적인 정보로 변경해주신다면, 그에 기반하여 귀중한 조언을 드릴 수 있습니다.
+소프트웨어융합학과의 경우, 성적요건이나 모집요강에서의 구조를 제공해주세요.</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 신소재공학과의 합격 가능성에 대한 구체적인 정보를 제공하지 않고, 일반적인 제안과 평가 기준에 대한 내용을 포함하고 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 성적 정보와 합격 가능성에 대한 판단을 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 신소재공학과의 합격 가능성에 대한 판단을 다르게 제시하고 있습니다. 원본 텍스트는 성적이 평균보다 높다고 판단했지만, 생성된 응답은 면접과 서류 평가에 중점을 두고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주어진 질문에 대한 직접적인 답변을 제공하지 않고 일반적인 제안으로 흐르고 있습니다. 따라서 관련성은 있지만, 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 주제를 다루고 있지만, 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 주제와 관련된 정보가 혼합되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 성적에 대한 판단을 다르게 제시하고 있습니다. 원본 텍스트는 성적이 평균보다 높다고 판단했지만, 생성된 응답은 면접과 서류 평가에 중점을 두고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 주어진 질문에 대한 적절한 답변을 제공하지 않고 있습니다. 따라서 의미적으로 적절하지만, 질문에 대한 직접적인 답변이 부족합니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장은 복잡하게 구성되어 있어 명확하게 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>0.8132402878040286</v>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 정시 모집요강이나 특정 과목의 성적(4.28)과 신소재 공학부 지원자가 합격하기 위한 구체적인 수준에 대한 세부 사항이 명시되어 있지 않습니다. 다만, 여기 일반적인 제안을 드리겠습니다:
+- **성적 평가**: 신입생의 지원이나 모집단위에서의 합격은 수능 최저학력기준(4.28)보다는 면접, 구조화된 서류평가, 그리고 지원자의 전문성과 관련된 요소에 중점을 둔 종합 평가로 이루어질 수 있습니다.
+- **면접의무**: 신입생은 서류 면접과 동일한 비율(40%)를 통해 자기소개, 학문적 관심사, 인성 평가 등을 제시하여 합격의 기회를 마련합니다.
+- **2단계 면접**: 선발과정에서는 동일한 지원자들을 대상으로 인터뷰나 고차 시험이 진행되어, 기존의 성적보다 더 중요한 역할을 하게 됩니다.
+신소재 공학부에서는 지원자가 IT융합부품소재, 공학과 관련된 내용이 우수한 고교 학습 기록을 보유하고 면접에서도 강점을 인정한다면, 성적만으로는 어려운 결과를 피할 수 있지만, 전체적인 합격요건을 충족하는 경우에는 기회가 열릴 수 있습니다.
+신청자의 구체적인 성과를 평가하고, 동의대학교의 합격요건을 면밀히 조사해야 합니다. 이미 지원한 경우에는 제출서류를 정확하게 만들고, 학습과 인성을 강화하여 면접에서의 자신감을 가지시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 수능 일반학생전형에 자기소개서가 필요하다고 주장하고 있지만, 원문에서는 자기소개서가 필요 없다고 명시하고 있습니다. 따라서 사실과 완전히 상반된 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 전혀 없습니다. 원문에서 자기소개서가 필요 없다고 했는데, 생성된 응답에서는 필요하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 주제와 관련이 있지만, 원문에서 제시한 정보와는 상반된 내용을 포함하고 있어 관련성은 낮습니다. 원문이 자기소개서가 필요 없다고 했음에도 불구하고, 생성된 응답은 필요하다고 설명하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원문과의 내용 불일치로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공한 사실과 완전히 반대되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원문과의 불일치로 인해 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 제공하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>0.6869218565169691</v>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 신입생 모집요강에 따르면, 일반학생전형(재직자전형)을 지원하는 경우 자기소개서를 제출해야 합니다.
+요강에서는 다음과 같이 명시되어 있습니다:
+&gt; ◾고교 재학 중 학교생활을 바탕으로 공동체역량, 학업역량, 전공적합성을 정성·종합적으로 평가합니다.
+&gt; ※ 자기소개서는 인적·학적사항, 창의적체험활동상황, 교과학습발달상황(세부능력 및 특기), 행동특성 및 종합의견을 포함한 전형자료로서 채택됩니다.
+이는 일반학생(재직자)들에게도 자기소개서를 제출하여 인적, 경험적 요소를 강조한 종합적인 자료로 사용해야 한다는 의미입니다.
+자기소개서에는 학교생활, 대학진학을 위한 계획, 성과, 인정받은 사항(경진회나 종합대회 등), 미래비전이나 교양을 바탕으로 한 자신의 강점과 성장가능성에 대해서도 구체적인 내용을 제시하는 것이 중요합니다.
+정확한 지원방식은 수험기관의 요강과 지원자가 따를 사항에 대해서 주의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 정보가 포함되어 있지만, 원본 텍스트에서 제공된 구체적인 수능 등급 평균 및 추가 모집에 대한 정보가 누락되어 있습니다. 또한, SAT, ACT와 같은 다른 시험 성적을 언급하는 것은 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 예를 들어, 원본 텍스트는 수능 4개 영역 등급에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 다른 시험 성적에 대한 언급으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 핵심 내용인 수능 등급과 추가 모집에 대한 정보와는 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 부족하여 일관된 메시지를 전달하지 못하고 있습니다. 특히, 원본 텍스트의 주제와 관련이 없는 내용이 포함되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 특히 수능 등급에 대한 정보가 누락되어 있습니다. 또한, SAT, ACT와 같은 시험에 대한 언급은 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았으며, 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 모집에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 의미와 맥락에 완전히 부합하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 일부 내용이 원본 텍스트와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>0.7532067369678026</v>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>동의대학교에서의 정시 모집은 일반적으로 선택과 기한이 명시된 지원자만 고려됩니다. 4.5 점을 산출하신 것은 SAT, ACT 또는 국내 대회의 성적일 가능성이 흔합니다.
+학교생활기록부(LSAT, GRE 등)나 선택서류를 제출하는 경우에도, 정시모집의 지원은 일반적으로 이미 결정된 기한 내에서만 가능합니다. 동의대학교나 다른 대학들도 마찬가지입니다.
+선택사항이나 추가모집을 고려하는 경우, 일반적으로 정시 기한 이전에 대학의 지원자 관리 시스템(Applicant Tracking System: ATS)에서 인식되고, 합격선을 제출하는 과정을 진행해야 합니다.
+일부 대학이나 기관의 '지연모집'이나 '유보모집'에 대한 제한은 있을 수 있지만, 이는 특정 조건과 선택이므로 해당하는 내용을 구체적으로 확인해야 합니다.
+대학에서의 지원은 정식한 기간 안에만 신중하게 진행되도록 하세요.</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재학과의 평균 등급에 대한 정보는 포함하고 있지만, 구체적인 수능 최저학력기준이나 합격인원에 대한 정보가 없다고 언급하고 있습니다. 이는 사실이지만, 원본 텍스트에서 제공된 정보와는 다소 거리가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 신소재학과에 대한 구체적인 정보가 부족하여 일관성이 떨어집니다. 특히, 신소재학과의 평균 등급에 대한 언급이 없어서 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재학과에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 정보인 평균 등급에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보가 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재학과에 대한 정보가 부족하고, 원본 텍스트의 구체적인 수치나 정보를 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 정보의 정확성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 구체적인 정보가 부족하여 완전한 적절성을 제공하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 내용이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>0.6077550883763937</v>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부 합격 가능할까요? 정시등급은 몇 인가요 신소재 학과는?</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 동의대학교 신입생을 위한 구체적인 수능 최저학력기준이나 합격인원은 명시하고 있지 않습니다. 동의대학교는 "상경대학 인문사회 스마트호스피탈리티학과", "IT융합부품소재공과대학 공학", "ICT공과대학 공학"의 3개 단과대학 모집단위에서 신입생을 모집하고 있음을 나타냅니다.
+신소재 공학부(IT융합부품소재공과대학의 "공학"이라는 명칭)에 지원하여 합격할 수 있을 가능성은 추정할 수 있으나, 정확한 정시등급이나 모집인원에 대해서는 구체적인 정보를 제공하기는 어렵습니다.
+신설학과의 경우, 지원자격(고교 졸업 또는 동등한 학력), 수능 성적이나 면접에서의 평가를 기준으로 합격여부가 결정되는 경우가 많습니다.
+신설학과에 대한 구체적인 정보를 확인하기 위해서는 동의대학교나 관련 합격 자료에서 문서를 직접 확인하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학부의 성적 산출 방법에 대한 언급이 있지만, 원본 텍스트에서 제공된 평균 성적 데이터와 비교했을 때 구체적인 수치가 다소 다르게 제시되고 있습니다. 또한, 신소재공학부의 성적 요소에 대한 설명이 추가되었으나, 원본의 정보와 일치하지 않는 부분이 있어 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 성적 산출 방법에 대한 설명이 추가되면서 원본의 정보와 상충하는 부분이 있습니다. 특히, 성적 요소에 대한 해석이 다르게 나타나고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 신소재공학부의 성적에 대한 전망을 제시하고 있습니다. 그러나 일부 내용은 원본의 핵심 정보와는 거리가 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 각 요소 간의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 성적 데이터와 다르게 제시되고 있으며, 성적 요소에 대한 해석이 원본과 일치하지 않는 부분이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 대체로 일치하며, 신소재공학부에 대한 성적 전망을 적절하게 설명하고 있습니다. 그러나 일부 내용은 원본의 맥락과 다소 어긋나는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 복잡한 문장 구성으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>0.8190723549013882</v>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>제공된 성적산출방법에는 국어, 수학, 영어, 과학(미적분)의 표준점수가 기재되어 있지만, 신소재공학부나 다른전형에서는 사용하는고차원적인 성적요소들이 제한적일 수 있습니다.
+그러나 동의대학교가 지정한 표준점수에서 간단한 전망을 시도해보세요:
+- **국어**: 4.0 (104)
+- **수학**: 4.5 (108), 미적분(108 x 0.1 = 10.8)
+- **영어**: 4.0 (115)
+- **과학(미적분)**: 4.8 (9.72, 부피변칙에서 계산)
+이를 합하면 다음과 같은 기본적인 전형성적을 구해봅니다:
+4.0 (국어) + 4.5 (수학) + 4.0 (영어) + 4.8 (과학) = 17.3
+이는 단순화의 한계를 가진 분석일 뿐, 신소재공학부에서는 다음과 같은 요소들을 고려해야 합니다:
+1. **특정전문강의**: 이 성적들은 기초지식을 나타내는 것일 수 있지만, 신소재공학부에서는 고급화된 과목(특정유기화합물, 전자공학, 시스템공학)의 성적도 중요한 지표가 될 수 있습니다.
+2. **고차원 과목**: 기초과목에서는 부족하여, 신소재공학의 관련성이 높은 특정전문강의나 대회수색을 보유해야 합니다.
+3. **리더십과 기여**: 동아리, 학회에서의 역할이나 연구를 인정하는 자료도 중요한 영향을 미칠 수 있습니다.
+4. **면접**: 과학기술에 대한 이해도, 계획성, 인내심은 면접시의 중요한 반영사항일 수 있습니다.
+4.1~4.2 정도를 기대하려면, 이러한 고차원적인 성적요소들을 보강해야 합니다. 특히 신소재공학과의 관련성이 높은 전문강의나 기타 자격시험에서의 우수한 성적을 요구하는 경우, 국어, 수학, 영어를 정상선택 이상으로 높일 필요가 있을 것입니다.
+신체장비나 대회성과(인용구), 면접에서의 강점, 학교의 고차원화된 평가요소들이 제공되지 않은 경우라면, 전형성적을 4.1~4.2로 기대하는 것은 어려울 수 있다는 의미입니다. 이러한 요소들에서의 강점과 우수성을 평가해주시면, 구체적인 전망을 제공하겠습니다。</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형에 대한 구체적인 성적 정보를 제공하지 않고, 대신 성적 산출 방법에 대한 일반적인 설명을 하고 있습니다. 이는 원본 텍스트의 구체적인 사실과는 다르며, 정보의 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 동의대학교의 성적 정보를 제공하는 대신 일반적인 성적 산출 방법을 설명하고 있습니다. 이는 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교 인공지능학과에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트에서 제공하는 구체적인 성적 정보와는 관련이 적습니다. 성적 산출 방법에 대한 설명은 어느 정도 관련이 있지만, 질문의 핵심을 벗어나 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 성적 산출 방법에 대한 단계별 설명이 일관되게 이어집니다. 그러나 원본 텍스트와의 연결이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 구체적인 성적 정보를 제공하지 않으며, 대신 일반적인 성적 산출 방법을 설명하고 있습니다. 이는 원본 텍스트의 사실과는 다르기 때문에 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 정보의 정확성, 일관성, 관련성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 성적 산출 방법에 대한 설명은 의미적으로 적절하지만, 질문의 의도와는 맞지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 성적 산출 방법에 대한 설명이 명확합니다. 그러나 원본 텍스트와의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>0.7443618485347742</v>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>아이유의 문제를 해결하기 위한 AI로서, 개인정보나 특정학생의 성적을 제공할 수는 없습니다. 그러나 동의대 인공지능학과에 지원하기 위한 수능전형성적 산출을 만드는 방법은 다음과 같습니다:
+1. **국어**: 국어 시험의 점수 (예: 104)
+2. **수학**: 수학 시험의 점수 (예: 108)
+3. **영어**: 영어 시험의 점수 (예: 115)
+4. **과학(물리Ⅰ, 화학Ⅰ)**: 각 과목에서의 합산 점수 (예: 47+59=106)
+5. **탐구(미적분)**: 미적분을 시험한 경우의 점수 (예: 108 X 0.1 = 10.8)
+6. **합산 전형성적 점수**: 모든 영역에서의 점수를 합산합니다 (예: 104 + 108 + 115 + 106 + 10.8 = 439.8)
+이것은 일반적인 방법으로, 실제 산출에는 과목별 확대전형의 가중치나 동의대의 수능시스템에 맞는 조정이 필요합니다.
+지원하기 위한 각 영역의 성적은 자신의 경험과 학문적 기준에 맞추어 고려하세요. 동의대나 다른 교육기관을 지원할 때는 수험정보를 면밀히 조사하고, 학생들이 어떤 성과를 내고 있는지에 대한 자세한 전형성적을 제공하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 성적 기준에 대한 구체적인 정보를 제공하지 않고, 5.27 성적이 충원 합격 가능한지에 대한 명확한 답변을 제공하지 않습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하거나 누락한 것으로 평가됩니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트에서 제공된 정보와 일치하지 않으며, 충원 합격 가능성에 대한 명확한 판단을 내리지 않고 있습니다. 이는 일관성이 부족하다고 볼 수 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 구체적인 정보가 부족하여 다소 관련성이 떨어집니다. 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 정보와 연결되지 않아 일관성이 떨어집니다. 정보의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 5.27 성적에 대한 판단을 명확히 하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았으며, 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 구체적인 정보가 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보의 부족으로 인해 명확한 이해가 어려울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>0.757859928335653</v>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>제공된 문장에는 구체적인 정시 모집요강의 세부 사항이나 5.27의 성적을 기반으로 한 규칙과 비교하는 구체적인 정보가 없어, 그대로 분석할 수 없습니다.
+동의대나 기타 학교에서의 성적(5.27)이 동의대 정시 모집요강의 지침을 만족하는지 판단하려면 다음 사항들을 기억해야 합니다:
+1. 동의대가 제공한 성적(5.27)이 수학, 영어, 인문사회과학 등의 특정 과목에서 기록되었는지 여부
+2. 동의대가 모집요강에서 제시한 성적 기준이나 합격선은 무엇인지 (전형요소반영비율, 동점자 처리기준 등)
+3. 다른 과목의 성적이나 모집요강에서 제시된 전형요소(비율, 합격선 등)가 5.27의 성적을 만족하는지
+동의대나 정시모집에서 제공한 구체적인 세부 사항이 있다면, 그것들을 바탕으로 성적(5.27)의 합당성을 판단해보는 것이 가능합니다.
+현재 구체적인 정보를 제공해주시면, 자세한 조사를 도와드리겠습니다.</t>
+        </is>
+      </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 언급하지 않고, 합격 가능성을 논리적으로 판단하기 어렵다고 주장합니다. 그러나 원본 텍스트에서는 4.2의 성적이 평균 등급보다 높아 합격 가능성이 높다고 명시하고 있습니다. 이로 인해 사실성 점수는 3으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 합격 가능성에 대한 명확한 판단을 내리지 못하고 있습니다. 원본 텍스트는 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 이를 반박하는 듯한 내용을 담고 있어 일관성 점수는 3으로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부와 관련된 정보를 다루고 있으며, 주제와 관련된 질문에 대한 답변을 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 점수는 4로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 점수를 낮추었습니다. 따라서 점수는 4로 평가됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 나열하고 있으나, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 이로 인해 응답의 일관성이 떨어져 점수는 3으로 평가됩니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있으나, 합격 가능성에 대한 명확한 판단을 내리지 못하고 있습니다. 원본 텍스트의 핵심 사실을 충분히 반영하지 못해 정확성 점수는 3으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 다소 부족한 점이 있습니다. 따라서 다차원 품질 점수는 3으로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 일부 반영하고 있으나, 합격 가능성에 대한 명확한 판단을 내리지 못하고 있어 의미적으로 적절하지 않은 부분이 있습니다. 이로 인해 점수는 3으로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 이해하기 어려운 부분이 있어 점수는 4로 평가됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>0.7223573621003653</v>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>주어진 문장에서는 "동의대식"이라는 정시 성적(4.2)과 "소프트웨어공학부"가 논의되고 있음을 보여주지만, 구체적인 정보나 자세한 내용은 제공하지 않아 교과로 소프트웨어공학부에 합격할 가능성을 논리적으로 판단하는 것은 어려우게 만들어집니다.
+다음은 제공한 정보에서 도출할 수 있는 내용을 요약합니다:
+1. 교과로 '소프트웨어공학부'가 존재하는지의 시사점이 제공된다.
+2. 정시에서 성적(4.2)을 공개한 것으로, 그러나 교과학과나 대학부모의 구체적인 내용은 제공하지 않았다.
+소프트웨어공학부에 합격을 위한 논리적인 귀중함을 도출하기 위해서는:
+- 동의대식이나 그 교과로 '소프트웨어공학부'에 대한 구체적인 정보.
+- 합격선, 반영률, 기타 지원자들의 성적과의 비교.
+- '소프트웨어공학부'에서의 수능 시험 내용이나 요구사항.
+- 동의대식을 포함한 지원자들의 전체 성과 및 교과학과의 일치도.
+제공된 정보만으로는, 소프트웨어공학부에 합격하는지에 대한 명확한 답을 내리기는 어려우니, 이러한 구체적인 정보를 제공해주시면 자세한 조사나 계산에 도움이 될 수 있을 것 같아요.</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 화학환경공학부의 평균 등급에 대한 정보와 3.92의 성적이 합격 가능성이 높다는 내용을 포함하고 있지만, 성적 산출 방식에 대한 설명이 원본 텍스트와 일치하지 않으며, 일부 정보가 부정확하거나 불필요하게 복잡하게 제시되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주요 내용과 일치하는 부분이 있지만, 성적 산출 방식에 대한 설명이 원본의 간단한 합격 가능성 언급과 상충하는 부분이 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 화학환경공학부에 지원하는 것과 관련된 성적 검토를 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 정보인 합격 가능성에 대한 간단한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 성적 산출 방식에 대한 설명이 원본 텍스트의 간단한 메시지와 연결되지 않아 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 성적 산출 방식에 대한 설명이 원본 텍스트의 정보와 일치하지 않으며, 3.92의 성적을 해석하는 데 필요한 정보가 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이지만, 정보의 정확성과 일관성에서 부족함이 있어 종합적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 화학환경공학부에 대한 성적 검토와 관련된 내용을 다루고 있어 의미적으로 적절하지만, 원본 텍스트의 간단한 메시지를 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 다소 복잡한 성적 산출 방식 설명으로 인해 이해하기 어려운 부분이 있어 명확성이 떨어집니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>0.7241951057403332</v>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>동의대학교에서 정시 모집과정을 진행하는 학생이 3.92로 성적을 받아, 화학환경공학부(일반학생전형)에 지원하고자 한다면, 여기 제시된 방법을 바탕으로 성적의 가용성을 검토할 수 있습니다.
+그러나 정확한 산출은 다음과 같이 구성하는 방식에 의해서만 가능합니다:
+1. **수학**: 주로 미적분을 제외한 기본수학(47) + 고급수학(59)에 포함된 성적
+2. **국어**: 104의 점수
+3. **영어**: 지원하는 영역별 점수를 고려한 것(이 경우, 115)
+4. **과탐**: 물리Ⅰ(47) + 화학Ⅰ(59)의 합계에서 가산점을 곱한 결과 (0.1 * (47+59))
+이제 3.92로 표시된 성적을 구성식에 대입해보겠습니다:
+- **수학**: 기본과정(47) + 고급과정(59) = 106
+- **국어**: 104
+- **영어**: 115
+- **과탐**: (47+59) * 0.1 = 10.6
+이를 합산하면, 다음과 같은 총 성적을 받는 것입니다:
+104 (국어) + 106 (수학) + 115 (영어) + 10.6 (과탐) = 325.6
+이제 원본의 성적(3.92)은 일반적인 산출 방식에서는 구성하기 어려운 것 같습니다. 이는 단순한 합계가 아니라, 특정 비중과 가산점을 고려하여 구성된 수학에서의 일반화된 방식이어야 합니다.
+3.92는 단일영역의 표준점수로, 가중치나 계산을 고려하지 않은 값이어서 제공된 방식에서는 성적을 구현할 수 없습니다.
+3.92의 성적을 해석하기 위해서는, 동의대학교가 정시모집에서 사용하는 구조나 산출식이 필요합니다。또한, 일부영역(국어, 수학, 과탐)을 제외한 정확한 성적도 중요합니다.
+동의대학교에서는 이러한 구조를 아는 경우 그것을 바탕으로 3.92의 성적이 화학환경공학부(일반학생전형)에서도 가능한지를 신중하게 평가해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 수능 최저학력기준이 "없음"이라고 언급하고 있지만, 원문에서는 그러한 정보가 제공되지 않았습니다. 또한, 원문은 성적 4.25가 합격 가능성이 높다고 판단하고 있으나, 생성된 응답은 이를 명확히 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 상충되는 정보를 포함하고 있습니다. 원문은 성적 4.25가 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 수능 최저학력기준이 없다고 주장하며 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 질문에 관련된 정보를 제공하고 있으나, 원문에서 제공된 구체적인 데이터와 판단을 충분히 반영하지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 부분이 있지만, 원문과의 일관성이 부족하여 전체적인 일관성이 떨어집니다. 특히, 수능 최저학력기준에 대한 언급이 원문과의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 정보를 포함하고 있습니다. 수능 최저학력기준에 대한 언급은 원문에 없으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 원문과의 일관성이 부족하고, 사실적 정확성도 떨어지며, 일관성 또한 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 맥락이 맞지 않는 부분이 있어 의미 전달이 완벽하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>0.7398357176958059</v>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>제공된 문서에는 Dong-eui University의 정시 모집요강에서 수능 최저학력기준이 "없음"이라고 명시되어 있다고 나와 있습니다. 이는 Dong-eui University가 수능성적에 관계없이 지원자를 포함한 일반학생전형을 모집하고 있음을 의미합니다.
+따라서, Dong-eui University에서 화학환경공학부(이상의 과목)로 정시 지원한 성적 4.25은 수능 일반학생전형에 합격하는 자격을 갖추고 있다고 보입니다.
+그러나 정시모집은 종종 기타 요소, 예를 들어 면접이나 특별전형의 지원비율도 고려하게 됩니다. Dong-eui University에서 제공한 모든 정보를 바탕으로 합격을 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 영화학과의 면접 평가에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 수능 성적에 대한 정보와 관련이 없으며, 4.2라는 성적에 대한 해석이 잘못되었습니다. 원본 텍스트는 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 면접 평가에 대한 내용으로 전환되어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일관성이 없습니다. 원본 텍스트는 수능 성적에 대한 정보를 제공하고 합격 가능성을 언급하는 반면, 생성된 응답은 면접 평가에 대한 내용으로 전환되어 서로 다른 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적습니다. 원본 텍스트는 수능 성적과 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 면접 평가에 대한 내용으로 주제가 변경되었습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 주제가 전환되면서 논리적 흐름이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르게 해석하고 있으며, 4.2라는 성적에 대한 부정확한 정보를 제공합니다. 원본 텍스트는 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 면접 평가에 대한 내용으로 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 관련성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제가 전환되어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 일관성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>0.7640956078801481</v>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>제공된 정보에 기반하여, 영화학과를 지원한 경우의 면접평가는 다음과 같이 구성됩니다.
+1. **학업역량**: 400점 내에서 평가되며, 여기서의 4.2은 정확한 산출방법이나 구성요소(시험문, 과제 등)에 대해 명확하게 설명되지 않아서 어려움을 가질 수 있습니다.
+2. **전공적합성**: 160점에서 시험이 결정됩니다. 영화학과의 경우, 동아리나 진로를 중심으로 한 자연스러운 설명을 제공하면 평가에서 유리할 수 있습니다.
+3. **교과성적**: 400점의 영역이며, 여기서도 4.2은 구체적인 내용에 대한 세부 정보가 필요합니다.
+면접평가는 학업성과를 반영하기 위해 계산됩니다(400점). 2024학년도의 경우, 선발인원이 모집단위당 모집인원을 초과하지 않도록 합니다.
+4.2은 상대적인 수준일 가능성이 큽니다:
+- 면접의 구성요소(시험문, 과제)에서는 영화학과에 관한 자연스러운 대답을 제공하지 못해 산출된 수치일 수 있습니다.
+- 교과성적에서는, 영화학과의 특정 내용이나 관련 기사를 제공하지 않고도 4.2을 받은 경우가 가능합니다.
+부정적인 면접평가의 사례로는:
+- **허위사실**: 동아리나 진로에서의 체험이나 세부 내용을 기재하지 않거나, 그대로 기재한 내용과 달리 다른 사실을 제시한 경우.
+- **동점자 처리**: 특정 문항에서의 중요도가 극명하게 나타나지 않는 경우, 분산된 성과를 합산한 동점자 기준이 사용됩니다.
+4.2의 평가에서 영화학과에서 지원하는데 도움을 주기 위해서는:
+- 교과, 동아리, 진로를 중심으로 면접의 내용이나 관련 정보를 명확하고 자세히 제공해야 합니다.
+- 모집단위에서 선발인원을 초과하지 않도록 주의가 필요합니다(이는 일반적인 제한).
+면접은 종합적인 평가로, 교과성적에서만 4.2을 기록하는 것보다도 전공의 이해와 자신감이 중요한 영역입니다.</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>Phi-3.5-mini-instruct</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접 절차의 주요 단계를 나열하고 있지만, 일부 세부 사항이 원본 텍스트와 일치하지 않거나 과도하게 설명되어 있습니다. 예를 들어, "난로를 통해 들어오는 것"과 같은 표현은 원본에 없으며, 불필요한 정보가 추가되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구조를 따르지만, 일부 내용이 원본과 일치하지 않거나 추가적인 설명이 포함되어 있어 일관성이 떨어집니다. 예를 들어, "지원동기와 학업역량"이라는 항목은 원본에 명시되어 있지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 추가적인 설명이 원본의 핵심 내용에서 벗어나기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 일부 추가적인 정보가 포함되어 있어 약간의 일관성 저하가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 반영하고 있지만, 일부 세부 사항이 부정확하거나 과도하게 설명되어 있습니다. 예를 들어, "기타 질문 답변" 부분에서의 설명이 원본과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있습니다. 전반적으로 원본 텍스트와의 일치도가 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 추가적인 설명이 원본의 의도와 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>0.8886409614213316</v>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>면접 절차는 여러 단계로 구성됩니다. 주요 과정은 다음과 같습니다:
+1. **대기실 입실**: 지원자가 면접을 위해 방문하고, 난로를 통해 들어오는 것을 시작합니다.
+2. **신분 확인**: 지원자가 면접위원과의 식별에 대한 신분증명을 제출하거나 확인합니다.
+3. **고사장 앞 이동**: 지원자가 면접의 진행 장소로, 대기실에서 방문한 것을 나타냅니다.
+4. **학업동기 및 학습계획 발표**: 지원자가 진로를 어떻게 선택하고, 그에 대한 강한 의지와 학업 계획을 공유합니다.
+5. **학업역량 , 전공적합성 관련 공통문항 발표 및 질의응답**: 지원자가 고교시절에서의 학업 도전과 성과, 그리고 선택한 계열(전공)이 개인의 미래를 어떻게 위해 기여하는지에 대해 발표합니다.
+6. **기타 질문 답변**: 면접위원이 제공한 서류(면접질문지)를 바탕으로, 진위여부나 학업계획과의 일치를 확인하고, 다른 관련 사항에 대한 자세한 정보를 제공합니다.
+7. **지원동기와 학업역량**: 지원자가 선택의 이유, 교과과정을 어떻게 해결하고자 한다는 내용에서 대화를 나눕니다.
+8. **전공적합성**: 지원자가 선택한 학과의 이유, 그리고 교내/외부로부터의 경험(강연, 봉사 활동 등)에서의 관심을 공유합니다.
+9. **퇴실**: 면접이 모두 마무리되고, 지원자가 방문한 장소를 떠나게 됩니다.
+이 과정은 개인의 진로에 대한 열정, 학습을 위한 태도, 그리고 선택한 전공의 적합성을 종합적으로 평가하기 위해 마련되었습니다.</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
